--- a/data/record.xlsx
+++ b/data/record.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -803,6 +803,159 @@
         <v>0.0001157407407407407</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1</v>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>45612</v>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>0.7472800925925925</v>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>0.7473032407407407</v>
+      </c>
+      <c r="E22" s="3" t="n">
+        <v>2.314814814814815e-05</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>45612</v>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>0.7472800925925925</v>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>0.747337962962963</v>
+      </c>
+      <c r="E23" s="3" t="n">
+        <v>5.787037037037037e-05</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0</v>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>45612</v>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>0.7472800925925925</v>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>0.7473958333333334</v>
+      </c>
+      <c r="E24" s="3" t="n">
+        <v>0.0001157407407407407</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1</v>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>45612</v>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>0.748900462962963</v>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>0.7489236111111112</v>
+      </c>
+      <c r="E25" s="3" t="n">
+        <v>2.314814814814815e-05</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2</v>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>45612</v>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>0.748900462962963</v>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>0.7489583333333333</v>
+      </c>
+      <c r="E26" s="3" t="n">
+        <v>5.787037037037037e-05</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0</v>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>45612</v>
+      </c>
+      <c r="C27" s="2" t="n">
+        <v>0.748900462962963</v>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>0.7490162037037037</v>
+      </c>
+      <c r="E27" s="3" t="n">
+        <v>0.0001157407407407407</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1</v>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>45612</v>
+      </c>
+      <c r="C28" s="2" t="n">
+        <v>0.8778819444444445</v>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>0.8779050925925926</v>
+      </c>
+      <c r="E28" s="3" t="n">
+        <v>2.314814814814815e-05</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2</v>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>45612</v>
+      </c>
+      <c r="C29" s="2" t="n">
+        <v>0.8778819444444445</v>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>0.8779398148148149</v>
+      </c>
+      <c r="E29" s="3" t="n">
+        <v>5.787037037037037e-05</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0</v>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>45612</v>
+      </c>
+      <c r="C30" s="2" t="n">
+        <v>0.8778819444444445</v>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>0.8779976851851852</v>
+      </c>
+      <c r="E30" s="3" t="n">
+        <v>0.0001157407407407407</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/record.xlsx
+++ b/data/record.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -956,6 +956,2862 @@
         <v>0.0001157407407407407</v>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1</v>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C31" s="2" t="n">
+        <v>0.5902083333333333</v>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>0.5902083333333333</v>
+      </c>
+      <c r="E31" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1</v>
+      </c>
+      <c r="B32" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C32" s="2" t="n">
+        <v>0.6231944444444445</v>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>0.6232175925925926</v>
+      </c>
+      <c r="E32" s="3" t="n">
+        <v>2.314814814814815e-05</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>2</v>
+      </c>
+      <c r="B33" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C33" s="2" t="n">
+        <v>0.6231944444444445</v>
+      </c>
+      <c r="D33" s="2" t="n">
+        <v>0.6232523148148148</v>
+      </c>
+      <c r="E33" s="3" t="n">
+        <v>5.787037037037037e-05</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>3</v>
+      </c>
+      <c r="B34" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C34" s="2" t="n">
+        <v>0.6231944444444445</v>
+      </c>
+      <c r="D34" s="2" t="n">
+        <v>0.6233101851851852</v>
+      </c>
+      <c r="E34" s="3" t="n">
+        <v>0.0001157407407407407</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1</v>
+      </c>
+      <c r="B35" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C35" s="2" t="n">
+        <v>0.6242361111111111</v>
+      </c>
+      <c r="D35" s="2" t="n">
+        <v>0.6242592592592593</v>
+      </c>
+      <c r="E35" s="3" t="n">
+        <v>2.314814814814815e-05</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>2</v>
+      </c>
+      <c r="B36" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C36" s="2" t="n">
+        <v>0.6242361111111111</v>
+      </c>
+      <c r="D36" s="2" t="n">
+        <v>0.6242939814814815</v>
+      </c>
+      <c r="E36" s="3" t="n">
+        <v>5.787037037037037e-05</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>3</v>
+      </c>
+      <c r="B37" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C37" s="2" t="n">
+        <v>0.6242361111111111</v>
+      </c>
+      <c r="D37" s="2" t="n">
+        <v>0.6243518518518518</v>
+      </c>
+      <c r="E37" s="3" t="n">
+        <v>0.0001157407407407407</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>1</v>
+      </c>
+      <c r="B38" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C38" s="2" t="n">
+        <v>0.6248148148148148</v>
+      </c>
+      <c r="D38" s="2" t="n">
+        <v>0.624837962962963</v>
+      </c>
+      <c r="E38" s="3" t="n">
+        <v>2.314814814814815e-05</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>2</v>
+      </c>
+      <c r="B39" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C39" s="2" t="n">
+        <v>0.6248148148148148</v>
+      </c>
+      <c r="D39" s="2" t="n">
+        <v>0.6248842592592593</v>
+      </c>
+      <c r="E39" s="3" t="n">
+        <v>5.787037037037037e-05</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>3</v>
+      </c>
+      <c r="B40" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C40" s="2" t="n">
+        <v>0.6248148148148148</v>
+      </c>
+      <c r="D40" s="2" t="n">
+        <v>0.6249305555555555</v>
+      </c>
+      <c r="E40" s="3" t="n">
+        <v>0.0001157407407407407</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>0</v>
+      </c>
+      <c r="B41" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C41" s="2" t="n">
+        <v>0.6248148148148148</v>
+      </c>
+      <c r="D41" s="2" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="E41" s="3" t="n">
+        <v>0.0001736111111111111</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>1</v>
+      </c>
+      <c r="B42" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C42" s="2" t="n">
+        <v>0.6254513888888888</v>
+      </c>
+      <c r="D42" s="2" t="n">
+        <v>0.625474537037037</v>
+      </c>
+      <c r="E42" s="3" t="n">
+        <v>2.314814814814815e-05</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>2</v>
+      </c>
+      <c r="B43" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C43" s="2" t="n">
+        <v>0.6254513888888888</v>
+      </c>
+      <c r="D43" s="2" t="n">
+        <v>0.6255092592592593</v>
+      </c>
+      <c r="E43" s="3" t="n">
+        <v>5.787037037037037e-05</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>3</v>
+      </c>
+      <c r="B44" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C44" s="2" t="n">
+        <v>0.6254513888888888</v>
+      </c>
+      <c r="D44" s="2" t="n">
+        <v>0.6255671296296297</v>
+      </c>
+      <c r="E44" s="3" t="n">
+        <v>0.0001157407407407407</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>0</v>
+      </c>
+      <c r="B45" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C45" s="2" t="n">
+        <v>0.6254513888888888</v>
+      </c>
+      <c r="D45" s="2" t="n">
+        <v>0.625625</v>
+      </c>
+      <c r="E45" s="3" t="n">
+        <v>0.0001736111111111111</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>1</v>
+      </c>
+      <c r="B46" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C46" s="2" t="n">
+        <v>0.6258680555555556</v>
+      </c>
+      <c r="D46" s="2" t="n">
+        <v>0.6258912037037037</v>
+      </c>
+      <c r="E46" s="3" t="n">
+        <v>2.314814814814815e-05</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>2</v>
+      </c>
+      <c r="B47" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C47" s="2" t="n">
+        <v>0.6258680555555556</v>
+      </c>
+      <c r="D47" s="2" t="n">
+        <v>0.6259259259259259</v>
+      </c>
+      <c r="E47" s="3" t="n">
+        <v>5.787037037037037e-05</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>3</v>
+      </c>
+      <c r="B48" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C48" s="2" t="n">
+        <v>0.6258680555555556</v>
+      </c>
+      <c r="D48" s="2" t="n">
+        <v>0.6259837962962963</v>
+      </c>
+      <c r="E48" s="3" t="n">
+        <v>0.0001157407407407407</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>0</v>
+      </c>
+      <c r="B49" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C49" s="2" t="n">
+        <v>0.6258680555555556</v>
+      </c>
+      <c r="D49" s="2" t="n">
+        <v>0.6260416666666667</v>
+      </c>
+      <c r="E49" s="3" t="n">
+        <v>0.0001736111111111111</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>1</v>
+      </c>
+      <c r="B50" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C50" s="2" t="n">
+        <v>0.6263888888888889</v>
+      </c>
+      <c r="D50" s="2" t="n">
+        <v>0.6264120370370371</v>
+      </c>
+      <c r="E50" s="3" t="n">
+        <v>2.314814814814815e-05</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>2</v>
+      </c>
+      <c r="B51" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C51" s="2" t="n">
+        <v>0.6263888888888889</v>
+      </c>
+      <c r="D51" s="2" t="n">
+        <v>0.6264467592592593</v>
+      </c>
+      <c r="E51" s="3" t="n">
+        <v>5.787037037037037e-05</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>3</v>
+      </c>
+      <c r="B52" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C52" s="2" t="n">
+        <v>0.6263888888888889</v>
+      </c>
+      <c r="D52" s="2" t="n">
+        <v>0.6265046296296296</v>
+      </c>
+      <c r="E52" s="3" t="n">
+        <v>0.0001157407407407407</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>0</v>
+      </c>
+      <c r="B53" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C53" s="2" t="n">
+        <v>0.6263888888888889</v>
+      </c>
+      <c r="D53" s="2" t="n">
+        <v>0.6265625</v>
+      </c>
+      <c r="E53" s="3" t="n">
+        <v>0.0001736111111111111</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>1</v>
+      </c>
+      <c r="B54" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C54" s="2" t="n">
+        <v>0.6283217592592593</v>
+      </c>
+      <c r="D54" s="2" t="n">
+        <v>0.6283449074074074</v>
+      </c>
+      <c r="E54" s="3" t="n">
+        <v>2.314814814814815e-05</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>2</v>
+      </c>
+      <c r="B55" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C55" s="2" t="n">
+        <v>0.6283217592592593</v>
+      </c>
+      <c r="D55" s="2" t="n">
+        <v>0.6283796296296297</v>
+      </c>
+      <c r="E55" s="3" t="n">
+        <v>5.787037037037037e-05</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>3</v>
+      </c>
+      <c r="B56" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C56" s="2" t="n">
+        <v>0.6283217592592593</v>
+      </c>
+      <c r="D56" s="2" t="n">
+        <v>0.6284375</v>
+      </c>
+      <c r="E56" s="3" t="n">
+        <v>0.0001157407407407407</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>0</v>
+      </c>
+      <c r="B57" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C57" s="2" t="n">
+        <v>0.6283217592592593</v>
+      </c>
+      <c r="D57" s="2" t="n">
+        <v>0.6284953703703704</v>
+      </c>
+      <c r="E57" s="3" t="n">
+        <v>0.0001736111111111111</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>1</v>
+      </c>
+      <c r="B58" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C58" s="2" t="n">
+        <v>0.6304050925925926</v>
+      </c>
+      <c r="D58" s="2" t="n">
+        <v>0.6304282407407408</v>
+      </c>
+      <c r="E58" s="3" t="n">
+        <v>2.314814814814815e-05</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>2</v>
+      </c>
+      <c r="B59" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C59" s="2" t="n">
+        <v>0.6304050925925926</v>
+      </c>
+      <c r="D59" s="2" t="n">
+        <v>0.630462962962963</v>
+      </c>
+      <c r="E59" s="3" t="n">
+        <v>5.787037037037037e-05</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>3</v>
+      </c>
+      <c r="B60" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C60" s="2" t="n">
+        <v>0.6304050925925926</v>
+      </c>
+      <c r="D60" s="2" t="n">
+        <v>0.6305208333333333</v>
+      </c>
+      <c r="E60" s="3" t="n">
+        <v>0.0001157407407407407</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>0</v>
+      </c>
+      <c r="B61" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C61" s="2" t="n">
+        <v>0.6304050925925926</v>
+      </c>
+      <c r="D61" s="2" t="n">
+        <v>0.6305787037037037</v>
+      </c>
+      <c r="E61" s="3" t="n">
+        <v>0.0001736111111111111</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>1</v>
+      </c>
+      <c r="B62" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C62" s="2" t="n">
+        <v>0.630613425925926</v>
+      </c>
+      <c r="D62" s="2" t="n">
+        <v>0.630636574074074</v>
+      </c>
+      <c r="E62" s="3" t="n">
+        <v>2.314814814814815e-05</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>2</v>
+      </c>
+      <c r="B63" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C63" s="2" t="n">
+        <v>0.630613425925926</v>
+      </c>
+      <c r="D63" s="2" t="n">
+        <v>0.6306712962962963</v>
+      </c>
+      <c r="E63" s="3" t="n">
+        <v>5.787037037037037e-05</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>3</v>
+      </c>
+      <c r="B64" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C64" s="2" t="n">
+        <v>0.630613425925926</v>
+      </c>
+      <c r="D64" s="2" t="n">
+        <v>0.6307291666666667</v>
+      </c>
+      <c r="E64" s="3" t="n">
+        <v>0.0001157407407407407</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>0</v>
+      </c>
+      <c r="B65" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C65" s="2" t="n">
+        <v>0.630613425925926</v>
+      </c>
+      <c r="D65" s="2" t="n">
+        <v>0.6307870370370371</v>
+      </c>
+      <c r="E65" s="3" t="n">
+        <v>0.0001736111111111111</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>1</v>
+      </c>
+      <c r="B66" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C66" s="2" t="n">
+        <v>0.6312962962962962</v>
+      </c>
+      <c r="D66" s="2" t="n">
+        <v>0.6313194444444444</v>
+      </c>
+      <c r="E66" s="3" t="n">
+        <v>2.314814814814815e-05</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>2</v>
+      </c>
+      <c r="B67" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C67" s="2" t="n">
+        <v>0.6312962962962962</v>
+      </c>
+      <c r="D67" s="2" t="n">
+        <v>0.6313541666666667</v>
+      </c>
+      <c r="E67" s="3" t="n">
+        <v>5.787037037037037e-05</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>3</v>
+      </c>
+      <c r="B68" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C68" s="2" t="n">
+        <v>0.6312962962962962</v>
+      </c>
+      <c r="D68" s="2" t="n">
+        <v>0.6314120370370371</v>
+      </c>
+      <c r="E68" s="3" t="n">
+        <v>0.0001157407407407407</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>0</v>
+      </c>
+      <c r="B69" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C69" s="2" t="n">
+        <v>0.6312962962962962</v>
+      </c>
+      <c r="D69" s="2" t="n">
+        <v>0.6314699074074074</v>
+      </c>
+      <c r="E69" s="3" t="n">
+        <v>0.0001736111111111111</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>1</v>
+      </c>
+      <c r="B70" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C70" s="2" t="n">
+        <v>0.6315740740740741</v>
+      </c>
+      <c r="D70" s="2" t="n">
+        <v>0.6315972222222223</v>
+      </c>
+      <c r="E70" s="3" t="n">
+        <v>2.314814814814815e-05</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>2</v>
+      </c>
+      <c r="B71" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C71" s="2" t="n">
+        <v>0.6315740740740741</v>
+      </c>
+      <c r="D71" s="2" t="n">
+        <v>0.6316319444444445</v>
+      </c>
+      <c r="E71" s="3" t="n">
+        <v>5.787037037037037e-05</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>3</v>
+      </c>
+      <c r="B72" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C72" s="2" t="n">
+        <v>0.6315740740740741</v>
+      </c>
+      <c r="D72" s="2" t="n">
+        <v>0.6316898148148148</v>
+      </c>
+      <c r="E72" s="3" t="n">
+        <v>0.0001157407407407407</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>0</v>
+      </c>
+      <c r="B73" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C73" s="2" t="n">
+        <v>0.6315740740740741</v>
+      </c>
+      <c r="D73" s="2" t="n">
+        <v>0.6317476851851852</v>
+      </c>
+      <c r="E73" s="3" t="n">
+        <v>0.0001736111111111111</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>1</v>
+      </c>
+      <c r="B74" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C74" s="2" t="n">
+        <v>0.6320601851851851</v>
+      </c>
+      <c r="D74" s="2" t="n">
+        <v>0.6320833333333333</v>
+      </c>
+      <c r="E74" s="3" t="n">
+        <v>2.314814814814815e-05</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>2</v>
+      </c>
+      <c r="B75" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C75" s="2" t="n">
+        <v>0.6320601851851851</v>
+      </c>
+      <c r="D75" s="2" t="n">
+        <v>0.6321180555555556</v>
+      </c>
+      <c r="E75" s="3" t="n">
+        <v>5.787037037037037e-05</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>3</v>
+      </c>
+      <c r="B76" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C76" s="2" t="n">
+        <v>0.6320601851851851</v>
+      </c>
+      <c r="D76" s="2" t="n">
+        <v>0.632175925925926</v>
+      </c>
+      <c r="E76" s="3" t="n">
+        <v>0.0001157407407407407</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>0</v>
+      </c>
+      <c r="B77" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C77" s="2" t="n">
+        <v>0.6320601851851851</v>
+      </c>
+      <c r="D77" s="2" t="n">
+        <v>0.6322337962962963</v>
+      </c>
+      <c r="E77" s="3" t="n">
+        <v>0.0001736111111111111</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>1</v>
+      </c>
+      <c r="B78" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C78" s="2" t="n">
+        <v>0.6332060185185185</v>
+      </c>
+      <c r="D78" s="2" t="n">
+        <v>0.6332291666666666</v>
+      </c>
+      <c r="E78" s="3" t="n">
+        <v>2.314814814814815e-05</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>2</v>
+      </c>
+      <c r="B79" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C79" s="2" t="n">
+        <v>0.6332060185185185</v>
+      </c>
+      <c r="D79" s="2" t="n">
+        <v>0.6332638888888888</v>
+      </c>
+      <c r="E79" s="3" t="n">
+        <v>5.787037037037037e-05</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>3</v>
+      </c>
+      <c r="B80" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C80" s="2" t="n">
+        <v>0.6332060185185185</v>
+      </c>
+      <c r="D80" s="2" t="n">
+        <v>0.6333217592592593</v>
+      </c>
+      <c r="E80" s="3" t="n">
+        <v>0.0001157407407407407</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>0</v>
+      </c>
+      <c r="B81" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C81" s="2" t="n">
+        <v>0.6332060185185185</v>
+      </c>
+      <c r="D81" s="2" t="n">
+        <v>0.6333680555555555</v>
+      </c>
+      <c r="E81" s="3" t="n">
+        <v>0.000162037037037037</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>1</v>
+      </c>
+      <c r="B82" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C82" s="2" t="n">
+        <v>0.6337847222222223</v>
+      </c>
+      <c r="D82" s="2" t="n">
+        <v>0.6338078703703703</v>
+      </c>
+      <c r="E82" s="3" t="n">
+        <v>2.314814814814815e-05</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>2</v>
+      </c>
+      <c r="B83" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C83" s="2" t="n">
+        <v>0.6337847222222223</v>
+      </c>
+      <c r="D83" s="2" t="n">
+        <v>0.6338425925925926</v>
+      </c>
+      <c r="E83" s="3" t="n">
+        <v>5.787037037037037e-05</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>3</v>
+      </c>
+      <c r="B84" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C84" s="2" t="n">
+        <v>0.6337847222222223</v>
+      </c>
+      <c r="D84" s="2" t="n">
+        <v>0.633900462962963</v>
+      </c>
+      <c r="E84" s="3" t="n">
+        <v>0.0001157407407407407</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>0</v>
+      </c>
+      <c r="B85" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C85" s="2" t="n">
+        <v>0.6337847222222223</v>
+      </c>
+      <c r="D85" s="2" t="n">
+        <v>0.6339583333333333</v>
+      </c>
+      <c r="E85" s="3" t="n">
+        <v>0.000162037037037037</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>1</v>
+      </c>
+      <c r="B86" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C86" s="2" t="n">
+        <v>0.6349652777777778</v>
+      </c>
+      <c r="D86" s="2" t="n">
+        <v>0.634988425925926</v>
+      </c>
+      <c r="E86" s="3" t="n">
+        <v>2.314814814814815e-05</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>2</v>
+      </c>
+      <c r="B87" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C87" s="2" t="n">
+        <v>0.6349652777777778</v>
+      </c>
+      <c r="D87" s="2" t="n">
+        <v>0.6350231481481482</v>
+      </c>
+      <c r="E87" s="3" t="n">
+        <v>5.787037037037037e-05</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>3</v>
+      </c>
+      <c r="B88" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C88" s="2" t="n">
+        <v>0.6349652777777778</v>
+      </c>
+      <c r="D88" s="2" t="n">
+        <v>0.6350810185185185</v>
+      </c>
+      <c r="E88" s="3" t="n">
+        <v>0.0001157407407407407</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>0</v>
+      </c>
+      <c r="B89" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C89" s="2" t="n">
+        <v>0.6349652777777778</v>
+      </c>
+      <c r="D89" s="2" t="n">
+        <v>0.6351273148148148</v>
+      </c>
+      <c r="E89" s="3" t="n">
+        <v>0.000162037037037037</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>1</v>
+      </c>
+      <c r="B90" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C90" s="2" t="n">
+        <v>0.635162037037037</v>
+      </c>
+      <c r="D90" s="2" t="n">
+        <v>0.6351851851851852</v>
+      </c>
+      <c r="E90" s="3" t="n">
+        <v>2.314814814814815e-05</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>2</v>
+      </c>
+      <c r="B91" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C91" s="2" t="n">
+        <v>0.635162037037037</v>
+      </c>
+      <c r="D91" s="2" t="n">
+        <v>0.6352199074074074</v>
+      </c>
+      <c r="E91" s="3" t="n">
+        <v>5.787037037037037e-05</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>3</v>
+      </c>
+      <c r="B92" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C92" s="2" t="n">
+        <v>0.635162037037037</v>
+      </c>
+      <c r="D92" s="2" t="n">
+        <v>0.6352777777777778</v>
+      </c>
+      <c r="E92" s="3" t="n">
+        <v>0.0001157407407407407</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>0</v>
+      </c>
+      <c r="B93" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C93" s="2" t="n">
+        <v>0.635162037037037</v>
+      </c>
+      <c r="D93" s="2" t="n">
+        <v>0.6353240740740741</v>
+      </c>
+      <c r="E93" s="3" t="n">
+        <v>0.000162037037037037</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>1</v>
+      </c>
+      <c r="B94" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C94" s="2" t="n">
+        <v>0.6420370370370371</v>
+      </c>
+      <c r="D94" s="2" t="n">
+        <v>0.6420601851851852</v>
+      </c>
+      <c r="E94" s="3" t="n">
+        <v>2.314814814814815e-05</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>1</v>
+      </c>
+      <c r="B95" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C95" s="2" t="n">
+        <v>0.6420370370370371</v>
+      </c>
+      <c r="D95" s="2" t="n">
+        <v>0.6420601851851852</v>
+      </c>
+      <c r="E95" s="3" t="n">
+        <v>2.314814814814815e-05</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>2</v>
+      </c>
+      <c r="B96" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C96" s="2" t="n">
+        <v>0.6420370370370371</v>
+      </c>
+      <c r="D96" s="2" t="n">
+        <v>0.6420949074074074</v>
+      </c>
+      <c r="E96" s="3" t="n">
+        <v>5.787037037037037e-05</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>2</v>
+      </c>
+      <c r="B97" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C97" s="2" t="n">
+        <v>0.6420370370370371</v>
+      </c>
+      <c r="D97" s="2" t="n">
+        <v>0.6420949074074074</v>
+      </c>
+      <c r="E97" s="3" t="n">
+        <v>5.787037037037037e-05</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>0</v>
+      </c>
+      <c r="B98" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C98" s="2" t="n">
+        <v>0.6420370370370371</v>
+      </c>
+      <c r="D98" s="2" t="n">
+        <v>0.6421527777777778</v>
+      </c>
+      <c r="E98" s="3" t="n">
+        <v>0.0001157407407407407</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>3</v>
+      </c>
+      <c r="B99" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C99" s="2" t="n">
+        <v>0.6420370370370371</v>
+      </c>
+      <c r="D99" s="2" t="n">
+        <v>0.6421527777777778</v>
+      </c>
+      <c r="E99" s="3" t="n">
+        <v>0.0001157407407407407</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>0</v>
+      </c>
+      <c r="B100" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C100" s="2" t="n">
+        <v>0.6420370370370371</v>
+      </c>
+      <c r="D100" s="2" t="n">
+        <v>0.6421527777777778</v>
+      </c>
+      <c r="E100" s="3" t="n">
+        <v>0.0001157407407407407</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>1</v>
+      </c>
+      <c r="B101" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C101" s="2" t="n">
+        <v>0.6437037037037037</v>
+      </c>
+      <c r="D101" s="2" t="n">
+        <v>0.6437268518518519</v>
+      </c>
+      <c r="E101" s="3" t="n">
+        <v>2.314814814814815e-05</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>2</v>
+      </c>
+      <c r="B102" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C102" s="2" t="n">
+        <v>0.6437037037037037</v>
+      </c>
+      <c r="D102" s="2" t="n">
+        <v>0.6437615740740741</v>
+      </c>
+      <c r="E102" s="3" t="n">
+        <v>5.787037037037037e-05</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>3</v>
+      </c>
+      <c r="B103" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C103" s="2" t="n">
+        <v>0.6437037037037037</v>
+      </c>
+      <c r="D103" s="2" t="n">
+        <v>0.6438194444444445</v>
+      </c>
+      <c r="E103" s="3" t="n">
+        <v>0.0001157407407407407</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>0</v>
+      </c>
+      <c r="B104" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C104" s="2" t="n">
+        <v>0.6437037037037037</v>
+      </c>
+      <c r="D104" s="2" t="n">
+        <v>0.6438657407407408</v>
+      </c>
+      <c r="E104" s="3" t="n">
+        <v>0.000162037037037037</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>1</v>
+      </c>
+      <c r="B105" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C105" s="2" t="n">
+        <v>0.6440856481481482</v>
+      </c>
+      <c r="D105" s="2" t="n">
+        <v>0.6441087962962962</v>
+      </c>
+      <c r="E105" s="3" t="n">
+        <v>2.314814814814815e-05</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>2</v>
+      </c>
+      <c r="B106" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C106" s="2" t="n">
+        <v>0.6440856481481482</v>
+      </c>
+      <c r="D106" s="2" t="n">
+        <v>0.6441435185185185</v>
+      </c>
+      <c r="E106" s="3" t="n">
+        <v>5.787037037037037e-05</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>3</v>
+      </c>
+      <c r="B107" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C107" s="2" t="n">
+        <v>0.6440856481481482</v>
+      </c>
+      <c r="D107" s="2" t="n">
+        <v>0.6442013888888889</v>
+      </c>
+      <c r="E107" s="3" t="n">
+        <v>0.0001157407407407407</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>0</v>
+      </c>
+      <c r="B108" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C108" s="2" t="n">
+        <v>0.6440856481481482</v>
+      </c>
+      <c r="D108" s="2" t="n">
+        <v>0.6442592592592593</v>
+      </c>
+      <c r="E108" s="3" t="n">
+        <v>0.000162037037037037</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>1</v>
+      </c>
+      <c r="B109" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C109" s="2" t="n">
+        <v>0.6453935185185186</v>
+      </c>
+      <c r="D109" s="2" t="n">
+        <v>0.6454166666666666</v>
+      </c>
+      <c r="E109" s="3" t="n">
+        <v>2.314814814814815e-05</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>2</v>
+      </c>
+      <c r="B110" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C110" s="2" t="n">
+        <v>0.6453935185185186</v>
+      </c>
+      <c r="D110" s="2" t="n">
+        <v>0.6454513888888889</v>
+      </c>
+      <c r="E110" s="3" t="n">
+        <v>5.787037037037037e-05</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>3</v>
+      </c>
+      <c r="B111" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C111" s="2" t="n">
+        <v>0.6453935185185186</v>
+      </c>
+      <c r="D111" s="2" t="n">
+        <v>0.6455092592592593</v>
+      </c>
+      <c r="E111" s="3" t="n">
+        <v>0.0001157407407407407</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>0</v>
+      </c>
+      <c r="B112" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C112" s="2" t="n">
+        <v>0.6453935185185186</v>
+      </c>
+      <c r="D112" s="2" t="n">
+        <v>0.6455555555555555</v>
+      </c>
+      <c r="E112" s="3" t="n">
+        <v>0.000162037037037037</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>1</v>
+      </c>
+      <c r="B113" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C113" s="2" t="n">
+        <v>0.6455787037037037</v>
+      </c>
+      <c r="D113" s="2" t="n">
+        <v>0.6456018518518518</v>
+      </c>
+      <c r="E113" s="3" t="n">
+        <v>2.314814814814815e-05</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>2</v>
+      </c>
+      <c r="B114" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C114" s="2" t="n">
+        <v>0.6455787037037037</v>
+      </c>
+      <c r="D114" s="2" t="n">
+        <v>0.645636574074074</v>
+      </c>
+      <c r="E114" s="3" t="n">
+        <v>5.787037037037037e-05</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>3</v>
+      </c>
+      <c r="B115" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C115" s="2" t="n">
+        <v>0.6455787037037037</v>
+      </c>
+      <c r="D115" s="2" t="n">
+        <v>0.6456944444444445</v>
+      </c>
+      <c r="E115" s="3" t="n">
+        <v>0.0001157407407407407</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>0</v>
+      </c>
+      <c r="B116" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C116" s="2" t="n">
+        <v>0.6455787037037037</v>
+      </c>
+      <c r="D116" s="2" t="n">
+        <v>0.6457407407407407</v>
+      </c>
+      <c r="E116" s="3" t="n">
+        <v>0.000162037037037037</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>1</v>
+      </c>
+      <c r="B117" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C117" s="2" t="n">
+        <v>0.6458217592592592</v>
+      </c>
+      <c r="D117" s="2" t="n">
+        <v>0.6458449074074074</v>
+      </c>
+      <c r="E117" s="3" t="n">
+        <v>2.314814814814815e-05</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>2</v>
+      </c>
+      <c r="B118" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C118" s="2" t="n">
+        <v>0.6458217592592592</v>
+      </c>
+      <c r="D118" s="2" t="n">
+        <v>0.6458796296296296</v>
+      </c>
+      <c r="E118" s="3" t="n">
+        <v>5.787037037037037e-05</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>3</v>
+      </c>
+      <c r="B119" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C119" s="2" t="n">
+        <v>0.6458217592592592</v>
+      </c>
+      <c r="D119" s="2" t="n">
+        <v>0.6459375000000001</v>
+      </c>
+      <c r="E119" s="3" t="n">
+        <v>0.0001157407407407407</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>0</v>
+      </c>
+      <c r="B120" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C120" s="2" t="n">
+        <v>0.6458217592592592</v>
+      </c>
+      <c r="D120" s="2" t="n">
+        <v>0.6459953703703704</v>
+      </c>
+      <c r="E120" s="3" t="n">
+        <v>0.000162037037037037</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>1</v>
+      </c>
+      <c r="B121" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C121" s="2" t="n">
+        <v>0.6460185185185185</v>
+      </c>
+      <c r="D121" s="2" t="n">
+        <v>0.6460416666666666</v>
+      </c>
+      <c r="E121" s="3" t="n">
+        <v>2.314814814814815e-05</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>2</v>
+      </c>
+      <c r="B122" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C122" s="2" t="n">
+        <v>0.6460185185185185</v>
+      </c>
+      <c r="D122" s="2" t="n">
+        <v>0.6460763888888889</v>
+      </c>
+      <c r="E122" s="3" t="n">
+        <v>5.787037037037037e-05</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>3</v>
+      </c>
+      <c r="B123" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C123" s="2" t="n">
+        <v>0.6460185185185185</v>
+      </c>
+      <c r="D123" s="2" t="n">
+        <v>0.6461342592592593</v>
+      </c>
+      <c r="E123" s="3" t="n">
+        <v>0.0001157407407407407</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>0</v>
+      </c>
+      <c r="B124" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C124" s="2" t="n">
+        <v>0.6460185185185185</v>
+      </c>
+      <c r="D124" s="2" t="n">
+        <v>0.6461805555555555</v>
+      </c>
+      <c r="E124" s="3" t="n">
+        <v>0.000162037037037037</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>1</v>
+      </c>
+      <c r="B125" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C125" s="2" t="n">
+        <v>0.6490162037037037</v>
+      </c>
+      <c r="D125" s="2" t="n">
+        <v>0.6490393518518518</v>
+      </c>
+      <c r="E125" s="3" t="n">
+        <v>2.314814814814815e-05</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>2</v>
+      </c>
+      <c r="B126" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C126" s="2" t="n">
+        <v>0.6490162037037037</v>
+      </c>
+      <c r="D126" s="2" t="n">
+        <v>0.649074074074074</v>
+      </c>
+      <c r="E126" s="3" t="n">
+        <v>5.787037037037037e-05</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>3</v>
+      </c>
+      <c r="B127" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C127" s="2" t="n">
+        <v>0.6490162037037037</v>
+      </c>
+      <c r="D127" s="2" t="n">
+        <v>0.6491319444444444</v>
+      </c>
+      <c r="E127" s="3" t="n">
+        <v>0.0001157407407407407</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>1</v>
+      </c>
+      <c r="B128" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C128" s="2" t="n">
+        <v>0.649525462962963</v>
+      </c>
+      <c r="D128" s="2" t="n">
+        <v>0.6495486111111111</v>
+      </c>
+      <c r="E128" s="3" t="n">
+        <v>2.314814814814815e-05</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>2</v>
+      </c>
+      <c r="B129" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C129" s="2" t="n">
+        <v>0.649525462962963</v>
+      </c>
+      <c r="D129" s="2" t="n">
+        <v>0.6495833333333333</v>
+      </c>
+      <c r="E129" s="3" t="n">
+        <v>5.787037037037037e-05</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>3</v>
+      </c>
+      <c r="B130" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C130" s="2" t="n">
+        <v>0.649525462962963</v>
+      </c>
+      <c r="D130" s="2" t="n">
+        <v>0.6496412037037037</v>
+      </c>
+      <c r="E130" s="3" t="n">
+        <v>0.0001157407407407407</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>0</v>
+      </c>
+      <c r="B131" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C131" s="2" t="n">
+        <v>0.649525462962963</v>
+      </c>
+      <c r="D131" s="2" t="n">
+        <v>0.6496875</v>
+      </c>
+      <c r="E131" s="3" t="n">
+        <v>0.000162037037037037</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>1</v>
+      </c>
+      <c r="B132" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C132" s="2" t="n">
+        <v>0.6498842592592593</v>
+      </c>
+      <c r="D132" s="2" t="n">
+        <v>0.6499074074074074</v>
+      </c>
+      <c r="E132" s="3" t="n">
+        <v>2.314814814814815e-05</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>2</v>
+      </c>
+      <c r="B133" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C133" s="2" t="n">
+        <v>0.6498842592592593</v>
+      </c>
+      <c r="D133" s="2" t="n">
+        <v>0.6499421296296296</v>
+      </c>
+      <c r="E133" s="3" t="n">
+        <v>5.787037037037037e-05</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>3</v>
+      </c>
+      <c r="B134" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C134" s="2" t="n">
+        <v>0.6498842592592593</v>
+      </c>
+      <c r="D134" s="2" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="E134" s="3" t="n">
+        <v>0.0001157407407407407</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>0</v>
+      </c>
+      <c r="B135" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C135" s="2" t="n">
+        <v>0.6498842592592593</v>
+      </c>
+      <c r="D135" s="2" t="n">
+        <v>0.6500578703703703</v>
+      </c>
+      <c r="E135" s="3" t="n">
+        <v>0.000162037037037037</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>1</v>
+      </c>
+      <c r="B136" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C136" s="2" t="n">
+        <v>0.6566203703703704</v>
+      </c>
+      <c r="D136" s="2" t="n">
+        <v>0.6566435185185185</v>
+      </c>
+      <c r="E136" s="3" t="n">
+        <v>2.314814814814815e-05</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>2</v>
+      </c>
+      <c r="B137" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C137" s="2" t="n">
+        <v>0.6566203703703704</v>
+      </c>
+      <c r="D137" s="2" t="n">
+        <v>0.6566782407407408</v>
+      </c>
+      <c r="E137" s="3" t="n">
+        <v>5.787037037037037e-05</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>3</v>
+      </c>
+      <c r="B138" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C138" s="2" t="n">
+        <v>0.6566203703703704</v>
+      </c>
+      <c r="D138" s="2" t="n">
+        <v>0.6567361111111111</v>
+      </c>
+      <c r="E138" s="3" t="n">
+        <v>0.0001157407407407407</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>0</v>
+      </c>
+      <c r="B139" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C139" s="2" t="n">
+        <v>0.6566203703703704</v>
+      </c>
+      <c r="D139" s="2" t="n">
+        <v>0.6567824074074075</v>
+      </c>
+      <c r="E139" s="3" t="n">
+        <v>0.000162037037037037</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>1</v>
+      </c>
+      <c r="B140" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C140" s="2" t="n">
+        <v>0.656886574074074</v>
+      </c>
+      <c r="D140" s="2" t="n">
+        <v>0.6569097222222222</v>
+      </c>
+      <c r="E140" s="3" t="n">
+        <v>2.314814814814815e-05</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>2</v>
+      </c>
+      <c r="B141" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C141" s="2" t="n">
+        <v>0.656886574074074</v>
+      </c>
+      <c r="D141" s="2" t="n">
+        <v>0.6569444444444444</v>
+      </c>
+      <c r="E141" s="3" t="n">
+        <v>5.787037037037037e-05</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>3</v>
+      </c>
+      <c r="B142" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C142" s="2" t="n">
+        <v>0.656886574074074</v>
+      </c>
+      <c r="D142" s="2" t="n">
+        <v>0.6570023148148149</v>
+      </c>
+      <c r="E142" s="3" t="n">
+        <v>0.0001157407407407407</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>1</v>
+      </c>
+      <c r="B143" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C143" s="2" t="n">
+        <v>0.6580555555555555</v>
+      </c>
+      <c r="D143" s="2" t="n">
+        <v>0.6580787037037037</v>
+      </c>
+      <c r="E143" s="3" t="n">
+        <v>2.314814814814815e-05</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>2</v>
+      </c>
+      <c r="B144" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C144" s="2" t="n">
+        <v>0.6580555555555555</v>
+      </c>
+      <c r="D144" s="2" t="n">
+        <v>0.6581134259259259</v>
+      </c>
+      <c r="E144" s="3" t="n">
+        <v>5.787037037037037e-05</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>3</v>
+      </c>
+      <c r="B145" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C145" s="2" t="n">
+        <v>0.6580555555555555</v>
+      </c>
+      <c r="D145" s="2" t="n">
+        <v>0.6581712962962963</v>
+      </c>
+      <c r="E145" s="3" t="n">
+        <v>0.0001157407407407407</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>1</v>
+      </c>
+      <c r="B146" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C146" s="2" t="n">
+        <v>0.6582523148148148</v>
+      </c>
+      <c r="D146" s="2" t="n">
+        <v>0.6582754629629629</v>
+      </c>
+      <c r="E146" s="3" t="n">
+        <v>2.314814814814815e-05</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>2</v>
+      </c>
+      <c r="B147" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C147" s="2" t="n">
+        <v>0.6582523148148148</v>
+      </c>
+      <c r="D147" s="2" t="n">
+        <v>0.6583101851851851</v>
+      </c>
+      <c r="E147" s="3" t="n">
+        <v>5.787037037037037e-05</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>3</v>
+      </c>
+      <c r="B148" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C148" s="2" t="n">
+        <v>0.6582523148148148</v>
+      </c>
+      <c r="D148" s="2" t="n">
+        <v>0.6583680555555556</v>
+      </c>
+      <c r="E148" s="3" t="n">
+        <v>0.0001157407407407407</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>0</v>
+      </c>
+      <c r="B149" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C149" s="2" t="n">
+        <v>0.6582523148148148</v>
+      </c>
+      <c r="D149" s="2" t="n">
+        <v>0.658425925925926</v>
+      </c>
+      <c r="E149" s="3" t="n">
+        <v>0.000162037037037037</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>1</v>
+      </c>
+      <c r="B150" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C150" s="2" t="n">
+        <v>0.6586805555555556</v>
+      </c>
+      <c r="D150" s="2" t="n">
+        <v>0.6587037037037037</v>
+      </c>
+      <c r="E150" s="3" t="n">
+        <v>2.314814814814815e-05</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>2</v>
+      </c>
+      <c r="B151" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C151" s="2" t="n">
+        <v>0.6586805555555556</v>
+      </c>
+      <c r="D151" s="2" t="n">
+        <v>0.6587384259259259</v>
+      </c>
+      <c r="E151" s="3" t="n">
+        <v>5.787037037037037e-05</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>3</v>
+      </c>
+      <c r="B152" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C152" s="2" t="n">
+        <v>0.6586805555555556</v>
+      </c>
+      <c r="D152" s="2" t="n">
+        <v>0.6587962962962963</v>
+      </c>
+      <c r="E152" s="3" t="n">
+        <v>0.0001157407407407407</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>0</v>
+      </c>
+      <c r="B153" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C153" s="2" t="n">
+        <v>0.6586805555555556</v>
+      </c>
+      <c r="D153" s="2" t="n">
+        <v>0.6588425925925926</v>
+      </c>
+      <c r="E153" s="3" t="n">
+        <v>0.000162037037037037</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>1</v>
+      </c>
+      <c r="B154" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C154" s="2" t="n">
+        <v>0.6589236111111111</v>
+      </c>
+      <c r="D154" s="2" t="n">
+        <v>0.6589467592592593</v>
+      </c>
+      <c r="E154" s="3" t="n">
+        <v>2.314814814814815e-05</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>2</v>
+      </c>
+      <c r="B155" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C155" s="2" t="n">
+        <v>0.6589236111111111</v>
+      </c>
+      <c r="D155" s="2" t="n">
+        <v>0.6589814814814815</v>
+      </c>
+      <c r="E155" s="3" t="n">
+        <v>5.787037037037037e-05</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>3</v>
+      </c>
+      <c r="B156" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C156" s="2" t="n">
+        <v>0.6589236111111111</v>
+      </c>
+      <c r="D156" s="2" t="n">
+        <v>0.6590393518518518</v>
+      </c>
+      <c r="E156" s="3" t="n">
+        <v>0.0001157407407407407</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>0</v>
+      </c>
+      <c r="B157" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C157" s="2" t="n">
+        <v>0.6589236111111111</v>
+      </c>
+      <c r="D157" s="2" t="n">
+        <v>0.6590856481481482</v>
+      </c>
+      <c r="E157" s="3" t="n">
+        <v>0.000162037037037037</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>1</v>
+      </c>
+      <c r="B158" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C158" s="2" t="n">
+        <v>0.6625231481481482</v>
+      </c>
+      <c r="D158" s="2" t="n">
+        <v>0.6625462962962962</v>
+      </c>
+      <c r="E158" s="3" t="n">
+        <v>2.314814814814815e-05</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>2</v>
+      </c>
+      <c r="B159" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C159" s="2" t="n">
+        <v>0.6625231481481482</v>
+      </c>
+      <c r="D159" s="2" t="n">
+        <v>0.6625810185185185</v>
+      </c>
+      <c r="E159" s="3" t="n">
+        <v>5.787037037037037e-05</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>3</v>
+      </c>
+      <c r="B160" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C160" s="2" t="n">
+        <v>0.6625231481481482</v>
+      </c>
+      <c r="D160" s="2" t="n">
+        <v>0.6626388888888889</v>
+      </c>
+      <c r="E160" s="3" t="n">
+        <v>0.0001157407407407407</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>0</v>
+      </c>
+      <c r="B161" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C161" s="2" t="n">
+        <v>0.6625231481481482</v>
+      </c>
+      <c r="D161" s="2" t="n">
+        <v>0.6626851851851852</v>
+      </c>
+      <c r="E161" s="3" t="n">
+        <v>0.000162037037037037</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>1</v>
+      </c>
+      <c r="B162" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C162" s="2" t="n">
+        <v>0.6632870370370371</v>
+      </c>
+      <c r="D162" s="2" t="n">
+        <v>0.6633101851851851</v>
+      </c>
+      <c r="E162" s="3" t="n">
+        <v>2.314814814814815e-05</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>1</v>
+      </c>
+      <c r="B163" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C163" s="2" t="n">
+        <v>0.6634606481481482</v>
+      </c>
+      <c r="D163" s="2" t="n">
+        <v>0.6634837962962963</v>
+      </c>
+      <c r="E163" s="3" t="n">
+        <v>2.314814814814815e-05</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>2</v>
+      </c>
+      <c r="B164" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C164" s="2" t="n">
+        <v>0.6634606481481482</v>
+      </c>
+      <c r="D164" s="2" t="n">
+        <v>0.6635185185185185</v>
+      </c>
+      <c r="E164" s="3" t="n">
+        <v>5.787037037037037e-05</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>3</v>
+      </c>
+      <c r="B165" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C165" s="2" t="n">
+        <v>0.6634606481481482</v>
+      </c>
+      <c r="D165" s="2" t="n">
+        <v>0.6635763888888889</v>
+      </c>
+      <c r="E165" s="3" t="n">
+        <v>0.0001157407407407407</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>0</v>
+      </c>
+      <c r="B166" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C166" s="2" t="n">
+        <v>0.6634606481481482</v>
+      </c>
+      <c r="D166" s="2" t="n">
+        <v>0.6636226851851852</v>
+      </c>
+      <c r="E166" s="3" t="n">
+        <v>0.000162037037037037</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>1</v>
+      </c>
+      <c r="B167" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C167" s="2" t="n">
+        <v>0.6637152777777777</v>
+      </c>
+      <c r="D167" s="2" t="n">
+        <v>0.6637384259259259</v>
+      </c>
+      <c r="E167" s="3" t="n">
+        <v>2.314814814814815e-05</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>2</v>
+      </c>
+      <c r="B168" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C168" s="2" t="n">
+        <v>0.6637152777777777</v>
+      </c>
+      <c r="D168" s="2" t="n">
+        <v>0.6637731481481481</v>
+      </c>
+      <c r="E168" s="3" t="n">
+        <v>5.787037037037037e-05</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>3</v>
+      </c>
+      <c r="B169" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C169" s="2" t="n">
+        <v>0.6637152777777777</v>
+      </c>
+      <c r="D169" s="2" t="n">
+        <v>0.6638310185185186</v>
+      </c>
+      <c r="E169" s="3" t="n">
+        <v>0.0001157407407407407</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>0</v>
+      </c>
+      <c r="B170" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C170" s="2" t="n">
+        <v>0.6637152777777777</v>
+      </c>
+      <c r="D170" s="2" t="n">
+        <v>0.6638773148148148</v>
+      </c>
+      <c r="E170" s="3" t="n">
+        <v>0.000162037037037037</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>1</v>
+      </c>
+      <c r="B171" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C171" s="2" t="n">
+        <v>0.6640856481481482</v>
+      </c>
+      <c r="D171" s="2" t="n">
+        <v>0.6641087962962963</v>
+      </c>
+      <c r="E171" s="3" t="n">
+        <v>2.314814814814815e-05</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>2</v>
+      </c>
+      <c r="B172" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C172" s="2" t="n">
+        <v>0.6640856481481482</v>
+      </c>
+      <c r="D172" s="2" t="n">
+        <v>0.6641435185185185</v>
+      </c>
+      <c r="E172" s="3" t="n">
+        <v>5.787037037037037e-05</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>3</v>
+      </c>
+      <c r="B173" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C173" s="2" t="n">
+        <v>0.6640856481481482</v>
+      </c>
+      <c r="D173" s="2" t="n">
+        <v>0.6642013888888889</v>
+      </c>
+      <c r="E173" s="3" t="n">
+        <v>0.0001157407407407407</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>0</v>
+      </c>
+      <c r="B174" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C174" s="2" t="n">
+        <v>0.6640856481481482</v>
+      </c>
+      <c r="D174" s="2" t="n">
+        <v>0.6642476851851852</v>
+      </c>
+      <c r="E174" s="3" t="n">
+        <v>0.000162037037037037</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>1</v>
+      </c>
+      <c r="B175" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C175" s="2" t="n">
+        <v>0.6648148148148149</v>
+      </c>
+      <c r="D175" s="2" t="n">
+        <v>0.6648379629629629</v>
+      </c>
+      <c r="E175" s="3" t="n">
+        <v>2.314814814814815e-05</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>2</v>
+      </c>
+      <c r="B176" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C176" s="2" t="n">
+        <v>0.6648148148148149</v>
+      </c>
+      <c r="D176" s="2" t="n">
+        <v>0.6648726851851852</v>
+      </c>
+      <c r="E176" s="3" t="n">
+        <v>5.787037037037037e-05</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>3</v>
+      </c>
+      <c r="B177" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C177" s="2" t="n">
+        <v>0.6648148148148149</v>
+      </c>
+      <c r="D177" s="2" t="n">
+        <v>0.6649305555555556</v>
+      </c>
+      <c r="E177" s="3" t="n">
+        <v>0.0001157407407407407</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>0</v>
+      </c>
+      <c r="B178" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C178" s="2" t="n">
+        <v>0.6648148148148149</v>
+      </c>
+      <c r="D178" s="2" t="n">
+        <v>0.6649884259259259</v>
+      </c>
+      <c r="E178" s="3" t="n">
+        <v>0.000162037037037037</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>1</v>
+      </c>
+      <c r="B179" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C179" s="2" t="n">
+        <v>0.6651736111111111</v>
+      </c>
+      <c r="D179" s="2" t="n">
+        <v>0.6651967592592593</v>
+      </c>
+      <c r="E179" s="3" t="n">
+        <v>2.314814814814815e-05</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>2</v>
+      </c>
+      <c r="B180" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C180" s="2" t="n">
+        <v>0.6651736111111111</v>
+      </c>
+      <c r="D180" s="2" t="n">
+        <v>0.6652314814814815</v>
+      </c>
+      <c r="E180" s="3" t="n">
+        <v>5.787037037037037e-05</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>3</v>
+      </c>
+      <c r="B181" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C181" s="2" t="n">
+        <v>0.6651736111111111</v>
+      </c>
+      <c r="D181" s="2" t="n">
+        <v>0.6652893518518519</v>
+      </c>
+      <c r="E181" s="3" t="n">
+        <v>0.0001157407407407407</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>0</v>
+      </c>
+      <c r="B182" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C182" s="2" t="n">
+        <v>0.6651736111111111</v>
+      </c>
+      <c r="D182" s="2" t="n">
+        <v>0.6653356481481482</v>
+      </c>
+      <c r="E182" s="3" t="n">
+        <v>0.000162037037037037</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>1</v>
+      </c>
+      <c r="B183" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C183" s="2" t="n">
+        <v>0.6654513888888889</v>
+      </c>
+      <c r="D183" s="2" t="n">
+        <v>0.6654745370370371</v>
+      </c>
+      <c r="E183" s="3" t="n">
+        <v>2.314814814814815e-05</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>2</v>
+      </c>
+      <c r="B184" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C184" s="2" t="n">
+        <v>0.6654513888888889</v>
+      </c>
+      <c r="D184" s="2" t="n">
+        <v>0.6655092592592593</v>
+      </c>
+      <c r="E184" s="3" t="n">
+        <v>5.787037037037037e-05</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>3</v>
+      </c>
+      <c r="B185" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C185" s="2" t="n">
+        <v>0.6654513888888889</v>
+      </c>
+      <c r="D185" s="2" t="n">
+        <v>0.6655671296296296</v>
+      </c>
+      <c r="E185" s="3" t="n">
+        <v>0.0001157407407407407</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>0</v>
+      </c>
+      <c r="B186" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C186" s="2" t="n">
+        <v>0.6654513888888889</v>
+      </c>
+      <c r="D186" s="2" t="n">
+        <v>0.6656134259259259</v>
+      </c>
+      <c r="E186" s="3" t="n">
+        <v>0.000162037037037037</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>1</v>
+      </c>
+      <c r="B187" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C187" s="2" t="n">
+        <v>0.6656365740740741</v>
+      </c>
+      <c r="D187" s="2" t="n">
+        <v>0.6656597222222222</v>
+      </c>
+      <c r="E187" s="3" t="n">
+        <v>2.314814814814815e-05</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>2</v>
+      </c>
+      <c r="B188" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C188" s="2" t="n">
+        <v>0.6656365740740741</v>
+      </c>
+      <c r="D188" s="2" t="n">
+        <v>0.6656944444444445</v>
+      </c>
+      <c r="E188" s="3" t="n">
+        <v>5.787037037037037e-05</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>3</v>
+      </c>
+      <c r="B189" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C189" s="2" t="n">
+        <v>0.6656365740740741</v>
+      </c>
+      <c r="D189" s="2" t="n">
+        <v>0.6657523148148148</v>
+      </c>
+      <c r="E189" s="3" t="n">
+        <v>0.0001157407407407407</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>4</v>
+      </c>
+      <c r="B190" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C190" s="2" t="n">
+        <v>0.6656365740740741</v>
+      </c>
+      <c r="D190" s="2" t="n">
+        <v>0.6657986111111112</v>
+      </c>
+      <c r="E190" s="3" t="n">
+        <v>0.000162037037037037</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>4</v>
+      </c>
+      <c r="B191" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C191" s="2" t="n">
+        <v>0.6658217592592592</v>
+      </c>
+      <c r="D191" s="2" t="n">
+        <v>0.6658449074074074</v>
+      </c>
+      <c r="E191" s="3" t="n">
+        <v>2.314814814814815e-05</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>5</v>
+      </c>
+      <c r="B192" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C192" s="2" t="n">
+        <v>0.6658217592592592</v>
+      </c>
+      <c r="D192" s="2" t="n">
+        <v>0.6658796296296297</v>
+      </c>
+      <c r="E192" s="3" t="n">
+        <v>5.787037037037037e-05</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>6</v>
+      </c>
+      <c r="B193" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C193" s="2" t="n">
+        <v>0.6658217592592592</v>
+      </c>
+      <c r="D193" s="2" t="n">
+        <v>0.6659375</v>
+      </c>
+      <c r="E193" s="3" t="n">
+        <v>0.0001157407407407407</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>3</v>
+      </c>
+      <c r="B194" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C194" s="2" t="n">
+        <v>0.6658217592592592</v>
+      </c>
+      <c r="D194" s="2" t="n">
+        <v>0.6659953703703704</v>
+      </c>
+      <c r="E194" s="3" t="n">
+        <v>0.000162037037037037</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>4</v>
+      </c>
+      <c r="B195" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C195" s="2" t="n">
+        <v>0.6666319444444444</v>
+      </c>
+      <c r="D195" s="2" t="n">
+        <v>0.6666550925925926</v>
+      </c>
+      <c r="E195" s="3" t="n">
+        <v>2.314814814814815e-05</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>5</v>
+      </c>
+      <c r="B196" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C196" s="2" t="n">
+        <v>0.6666319444444444</v>
+      </c>
+      <c r="D196" s="2" t="n">
+        <v>0.6666898148148148</v>
+      </c>
+      <c r="E196" s="3" t="n">
+        <v>5.787037037037037e-05</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>6</v>
+      </c>
+      <c r="B197" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C197" s="2" t="n">
+        <v>0.6666319444444444</v>
+      </c>
+      <c r="D197" s="2" t="n">
+        <v>0.6667476851851852</v>
+      </c>
+      <c r="E197" s="3" t="n">
+        <v>0.0001157407407407407</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>3</v>
+      </c>
+      <c r="B198" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C198" s="2" t="n">
+        <v>0.6666319444444444</v>
+      </c>
+      <c r="D198" s="2" t="n">
+        <v>0.6668055555555555</v>
+      </c>
+      <c r="E198" s="3" t="n">
+        <v>0.000162037037037037</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/record.xlsx
+++ b/data/record.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F198"/>
+  <dimension ref="A1:F125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,13 +451,13 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="n">
-        <v>45612</v>
+        <v>45613</v>
       </c>
       <c r="C1" s="2" t="n">
-        <v>0.7269907407407408</v>
+        <v>0.7403703703703703</v>
       </c>
       <c r="D1" s="2" t="n">
-        <v>0.7270138888888888</v>
+        <v>0.7403935185185185</v>
       </c>
       <c r="E1" s="3" t="n">
         <v>2.314814814814815e-05</v>
@@ -465,84 +465,84 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>45612</v>
+        <v>45613</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>0.7269907407407408</v>
+        <v>0.7403703703703703</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.7270486111111111</v>
+        <v>0.7403935185185185</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>5.787037037037037e-05</v>
+        <v>2.314814814814815e-05</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>45612</v>
+        <v>45613</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>0.7269907407407408</v>
+        <v>0.7403703703703703</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.7271064814814815</v>
+        <v>0.7404282407407408</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>0.0001157407407407407</v>
+        <v>5.787037037037037e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45612</v>
+        <v>45613</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>0.7307523148148148</v>
+        <v>0.7403703703703703</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.7307754629629629</v>
+        <v>0.7404282407407408</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>2.314814814814815e-05</v>
+        <v>5.787037037037037e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45612</v>
+        <v>45613</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>0.7307523148148148</v>
+        <v>0.7403703703703703</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.7308101851851851</v>
+        <v>0.7404861111111111</v>
       </c>
       <c r="E5" s="3" t="n">
-        <v>5.787037037037037e-05</v>
+        <v>0.0001157407407407407</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45612</v>
+        <v>45613</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>0.7307523148148148</v>
+        <v>0.7403703703703703</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.7308680555555556</v>
+        <v>0.7404861111111111</v>
       </c>
       <c r="E6" s="3" t="n">
         <v>0.0001157407407407407</v>
@@ -550,118 +550,118 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45612</v>
+        <v>45613</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>0.7309143518518518</v>
+        <v>0.7403703703703703</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.7309375</v>
+        <v>0.7404861111111111</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>2.314814814814815e-05</v>
+        <v>0.0001157407407407407</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45612</v>
+        <v>45613</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>0.7309143518518518</v>
+        <v>0.7410532407407407</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.7309722222222222</v>
+        <v>0.7410763888888889</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>5.787037037037037e-05</v>
+        <v>2.314814814814815e-05</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45612</v>
+        <v>45613</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>0.7309143518518518</v>
+        <v>0.7410532407407407</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.7310300925925926</v>
+        <v>0.7411111111111112</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>0.0001157407407407407</v>
+        <v>5.787037037037037e-05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45612</v>
+        <v>45613</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>0.7327777777777778</v>
+        <v>0.7410532407407407</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.7328009259259259</v>
+        <v>0.7411574074074074</v>
       </c>
       <c r="E10" s="3" t="n">
-        <v>2.314814814814815e-05</v>
+        <v>0.0001041666666666667</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45612</v>
+        <v>45613</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>0.7327777777777778</v>
+        <v>0.7410532407407407</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.7328356481481482</v>
+        <v>0.7411574074074074</v>
       </c>
       <c r="E11" s="3" t="n">
-        <v>5.787037037037037e-05</v>
+        <v>0.0001041666666666667</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45612</v>
+        <v>45613</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>0.7327777777777778</v>
+        <v>0.7412384259259259</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.7328935185185185</v>
+        <v>0.7412615740740741</v>
       </c>
       <c r="E12" s="3" t="n">
-        <v>0.0001157407407407407</v>
+        <v>2.314814814814815e-05</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45612</v>
+        <v>45613</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>0.7337847222222222</v>
+        <v>0.7412384259259259</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.7338078703703703</v>
+        <v>0.7412615740740741</v>
       </c>
       <c r="E13" s="3" t="n">
         <v>2.314814814814815e-05</v>
@@ -669,50 +669,50 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45612</v>
+        <v>45613</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>0.7337847222222222</v>
+        <v>0.7412384259259259</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.7338425925925925</v>
+        <v>0.7412615740740741</v>
       </c>
       <c r="E14" s="3" t="n">
-        <v>5.787037037037037e-05</v>
+        <v>2.314814814814815e-05</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45612</v>
+        <v>45613</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>0.7337847222222222</v>
+        <v>0.7412384259259259</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.733900462962963</v>
+        <v>0.7412615740740741</v>
       </c>
       <c r="E15" s="3" t="n">
-        <v>0.0001157407407407407</v>
+        <v>2.314814814814815e-05</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45612</v>
+        <v>45613</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>0.7348842592592593</v>
+        <v>0.7426967592592593</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.7349074074074075</v>
+        <v>0.7427199074074075</v>
       </c>
       <c r="E16" s="3" t="n">
         <v>2.314814814814815e-05</v>
@@ -720,16 +720,16 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45612</v>
+        <v>45613</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>0.7348842592592593</v>
+        <v>0.7426967592592593</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.7349421296296297</v>
+        <v>0.7427546296296297</v>
       </c>
       <c r="E17" s="3" t="n">
         <v>5.787037037037037e-05</v>
@@ -737,152 +737,152 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45612</v>
+        <v>45613</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>0.7348842592592593</v>
+        <v>0.7426967592592593</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0.735</v>
+        <v>0.7428935185185185</v>
       </c>
       <c r="E18" s="3" t="n">
-        <v>0.0001157407407407407</v>
+        <v>9.259259259259259e-05</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45612</v>
+        <v>45613</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>0.7442476851851851</v>
+        <v>0.7426967592592593</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0.7442708333333333</v>
+        <v>0.7428935185185185</v>
       </c>
       <c r="E19" s="3" t="n">
-        <v>2.314814814814815e-05</v>
+        <v>9.259259259259259e-05</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45612</v>
+        <v>45613</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>0.7442476851851851</v>
+        <v>0.7444907407407407</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0.7443055555555556</v>
+        <v>0.7445138888888889</v>
       </c>
       <c r="E20" s="3" t="n">
-        <v>5.787037037037037e-05</v>
+        <v>2.314814814814815e-05</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45612</v>
+        <v>45613</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>0.7442476851851851</v>
+        <v>0.7444907407407407</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0.744363425925926</v>
+        <v>0.7445486111111111</v>
       </c>
       <c r="E21" s="3" t="n">
-        <v>0.0001157407407407407</v>
+        <v>5.787037037037037e-05</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45612</v>
+        <v>45613</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>0.7472800925925925</v>
+        <v>0.7444907407407407</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0.7473032407407407</v>
+        <v>0.7446064814814815</v>
       </c>
       <c r="E22" s="3" t="n">
-        <v>2.314814814814815e-05</v>
+        <v>0.0001157407407407407</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45612</v>
+        <v>45613</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>0.7472800925925925</v>
+        <v>0.7444907407407407</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>0.747337962962963</v>
+        <v>0.7446527777777778</v>
       </c>
       <c r="E23" s="3" t="n">
-        <v>5.787037037037037e-05</v>
+        <v>0.000150462962962963</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45612</v>
+        <v>45613</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>0.7472800925925925</v>
+        <v>0.7468287037037037</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>0.7473958333333334</v>
+        <v>0.7468518518518519</v>
       </c>
       <c r="E24" s="3" t="n">
-        <v>0.0001157407407407407</v>
+        <v>2.314814814814815e-05</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45612</v>
+        <v>45613</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>0.748900462962963</v>
+        <v>0.7468287037037037</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>0.7489236111111112</v>
+        <v>0.7468865740740741</v>
       </c>
       <c r="E25" s="3" t="n">
-        <v>2.314814814814815e-05</v>
+        <v>5.787037037037037e-05</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45612</v>
+        <v>45613</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>0.748900462962963</v>
+        <v>0.7468287037037037</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>0.7489583333333333</v>
+        <v>0.7468865740740741</v>
       </c>
       <c r="E26" s="3" t="n">
         <v>5.787037037037037e-05</v>
@@ -890,33 +890,33 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45612</v>
+        <v>45613</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>0.748900462962963</v>
+        <v>0.7468287037037037</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>0.7490162037037037</v>
+        <v>0.7468865740740741</v>
       </c>
       <c r="E27" s="3" t="n">
-        <v>0.0001157407407407407</v>
+        <v>5.787037037037037e-05</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45612</v>
+        <v>45613</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>0.8778819444444445</v>
+        <v>0.7470949074074074</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>0.8779050925925926</v>
+        <v>0.7471180555555555</v>
       </c>
       <c r="E28" s="3" t="n">
         <v>2.314814814814815e-05</v>
@@ -924,67 +924,67 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45612</v>
+        <v>45613</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>0.8778819444444445</v>
+        <v>0.7470949074074074</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>0.8779398148148149</v>
+        <v>0.7471180555555555</v>
       </c>
       <c r="E29" s="3" t="n">
-        <v>5.787037037037037e-05</v>
+        <v>2.314814814814815e-05</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45612</v>
+        <v>45613</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>0.8778819444444445</v>
+        <v>0.7470949074074074</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>0.8779976851851852</v>
+        <v>0.7471180555555555</v>
       </c>
       <c r="E30" s="3" t="n">
-        <v>0.0001157407407407407</v>
+        <v>2.314814814814815e-05</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B31" s="1" t="n">
         <v>45613</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>0.5902083333333333</v>
+        <v>0.7470949074074074</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>0.5902083333333333</v>
+        <v>0.7471180555555555</v>
       </c>
       <c r="E31" s="3" t="n">
-        <v>0</v>
+        <v>2.314814814814815e-05</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B32" s="1" t="n">
         <v>45613</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>0.6231944444444445</v>
+        <v>0.7494675925925925</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>0.6232175925925926</v>
+        <v>0.7494907407407407</v>
       </c>
       <c r="E32" s="3" t="n">
         <v>2.314814814814815e-05</v>
@@ -992,237 +992,237 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B33" s="1" t="n">
         <v>45613</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>0.6231944444444445</v>
+        <v>0.7494675925925925</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>0.6232523148148148</v>
+        <v>0.7495601851851852</v>
       </c>
       <c r="E33" s="3" t="n">
-        <v>5.787037037037037e-05</v>
+        <v>3.472222222222222e-05</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B34" s="1" t="n">
         <v>45613</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>0.6231944444444445</v>
+        <v>0.7494675925925925</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>0.6233101851851852</v>
+        <v>0.7495601851851852</v>
       </c>
       <c r="E34" s="3" t="n">
-        <v>0.0001157407407407407</v>
+        <v>3.472222222222222e-05</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B35" s="1" t="n">
         <v>45613</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>0.6242361111111111</v>
+        <v>0.7494675925925925</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>0.6242592592592593</v>
+        <v>0.7495601851851852</v>
       </c>
       <c r="E35" s="3" t="n">
-        <v>2.314814814814815e-05</v>
+        <v>3.472222222222222e-05</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B36" s="1" t="n">
         <v>45613</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>0.6242361111111111</v>
+        <v>0.7512152777777777</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>0.6242939814814815</v>
+        <v>0.7512384259259259</v>
       </c>
       <c r="E36" s="3" t="n">
-        <v>5.787037037037037e-05</v>
+        <v>2.314814814814815e-05</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B37" s="1" t="n">
         <v>45613</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>0.6242361111111111</v>
+        <v>0.7512152777777777</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>0.6243518518518518</v>
+        <v>0.7512731481481482</v>
       </c>
       <c r="E37" s="3" t="n">
-        <v>0.0001157407407407407</v>
+        <v>5.787037037037037e-05</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B38" s="1" t="n">
         <v>45613</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>0.6248148148148148</v>
+        <v>0.7512152777777777</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>0.624837962962963</v>
+        <v>0.7513310185185185</v>
       </c>
       <c r="E38" s="3" t="n">
-        <v>2.314814814814815e-05</v>
+        <v>0.0001041666666666667</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B39" s="1" t="n">
         <v>45613</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>0.6248148148148148</v>
+        <v>0.7512152777777777</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>0.6248842592592593</v>
+        <v>0.7513310185185185</v>
       </c>
       <c r="E39" s="3" t="n">
-        <v>5.787037037037037e-05</v>
+        <v>0.0001041666666666667</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B40" s="1" t="n">
         <v>45613</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>0.6248148148148148</v>
+        <v>0.7521180555555556</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>0.6249305555555555</v>
+        <v>0.7521296296296296</v>
       </c>
       <c r="E40" s="3" t="n">
-        <v>0.0001157407407407407</v>
+        <v>1.157407407407407e-05</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B41" s="1" t="n">
         <v>45613</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>0.6248148148148148</v>
+        <v>0.7521180555555556</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>0.625</v>
+        <v>0.7521296296296296</v>
       </c>
       <c r="E41" s="3" t="n">
-        <v>0.0001736111111111111</v>
+        <v>1.157407407407407e-05</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B42" s="1" t="n">
         <v>45613</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>0.6254513888888888</v>
+        <v>0.7521180555555556</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>0.625474537037037</v>
+        <v>0.7521296296296296</v>
       </c>
       <c r="E42" s="3" t="n">
-        <v>2.314814814814815e-05</v>
+        <v>1.157407407407407e-05</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B43" s="1" t="n">
         <v>45613</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>0.6254513888888888</v>
+        <v>0.7521180555555556</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>0.6255092592592593</v>
+        <v>0.7521296296296296</v>
       </c>
       <c r="E43" s="3" t="n">
-        <v>5.787037037037037e-05</v>
+        <v>1.157407407407407e-05</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B44" s="1" t="n">
         <v>45613</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>0.6254513888888888</v>
+        <v>0.7524884259259259</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>0.6255671296296297</v>
+        <v>0.7525115740740741</v>
       </c>
       <c r="E44" s="3" t="n">
-        <v>0.0001157407407407407</v>
+        <v>2.314814814814815e-05</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B45" s="1" t="n">
         <v>45613</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>0.6254513888888888</v>
+        <v>0.7524884259259259</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>0.625625</v>
+        <v>0.7525231481481481</v>
       </c>
       <c r="E45" s="3" t="n">
-        <v>0.0001736111111111111</v>
+        <v>2.314814814814815e-05</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B46" s="1" t="n">
         <v>45613</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>0.6258680555555556</v>
+        <v>0.7524884259259259</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>0.6258912037037037</v>
+        <v>0.7525231481481481</v>
       </c>
       <c r="E46" s="3" t="n">
         <v>2.314814814814815e-05</v>
@@ -1230,67 +1230,67 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B47" s="1" t="n">
         <v>45613</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>0.6258680555555556</v>
+        <v>0.7524884259259259</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>0.6259259259259259</v>
+        <v>0.7525231481481481</v>
       </c>
       <c r="E47" s="3" t="n">
-        <v>5.787037037037037e-05</v>
+        <v>2.314814814814815e-05</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B48" s="1" t="n">
         <v>45613</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>0.6258680555555556</v>
+        <v>0.752650462962963</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>0.6259837962962963</v>
+        <v>0.7526736111111111</v>
       </c>
       <c r="E48" s="3" t="n">
-        <v>0.0001157407407407407</v>
+        <v>2.314814814814815e-05</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B49" s="1" t="n">
         <v>45613</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>0.6258680555555556</v>
+        <v>0.752650462962963</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>0.6260416666666667</v>
+        <v>0.7526736111111111</v>
       </c>
       <c r="E49" s="3" t="n">
-        <v>0.0001736111111111111</v>
+        <v>2.314814814814815e-05</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B50" s="1" t="n">
         <v>45613</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>0.6263888888888889</v>
+        <v>0.752650462962963</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>0.6264120370370371</v>
+        <v>0.7526736111111111</v>
       </c>
       <c r="E50" s="3" t="n">
         <v>2.314814814814815e-05</v>
@@ -1298,67 +1298,67 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B51" s="1" t="n">
         <v>45613</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>0.6263888888888889</v>
+        <v>0.752650462962963</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>0.6264467592592593</v>
+        <v>0.7526736111111111</v>
       </c>
       <c r="E51" s="3" t="n">
-        <v>5.787037037037037e-05</v>
+        <v>2.314814814814815e-05</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B52" s="1" t="n">
         <v>45613</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>0.6263888888888889</v>
+        <v>0.7528703703703704</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>0.6265046296296296</v>
+        <v>0.7528935185185185</v>
       </c>
       <c r="E52" s="3" t="n">
-        <v>0.0001157407407407407</v>
+        <v>2.314814814814815e-05</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B53" s="1" t="n">
         <v>45613</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>0.6263888888888889</v>
+        <v>0.7528703703703704</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>0.6265625</v>
+        <v>0.7529166666666667</v>
       </c>
       <c r="E53" s="3" t="n">
-        <v>0.0001736111111111111</v>
+        <v>2.314814814814815e-05</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B54" s="1" t="n">
         <v>45613</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>0.6283217592592593</v>
+        <v>0.7528703703703704</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>0.6283449074074074</v>
+        <v>0.7529166666666667</v>
       </c>
       <c r="E54" s="3" t="n">
         <v>2.314814814814815e-05</v>
@@ -1366,135 +1366,135 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B55" s="1" t="n">
         <v>45613</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>0.6283217592592593</v>
+        <v>0.7528703703703704</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>0.6283796296296297</v>
+        <v>0.7529166666666667</v>
       </c>
       <c r="E55" s="3" t="n">
-        <v>5.787037037037037e-05</v>
+        <v>2.314814814814815e-05</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B56" s="1" t="n">
         <v>45613</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>0.6283217592592593</v>
+        <v>0.7536805555555556</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>0.6284375</v>
+        <v>0.7537037037037037</v>
       </c>
       <c r="E56" s="3" t="n">
-        <v>0.0001157407407407407</v>
+        <v>2.314814814814815e-05</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B57" s="1" t="n">
         <v>45613</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>0.6283217592592593</v>
+        <v>0.7536805555555556</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>0.6284953703703704</v>
+        <v>0.7537847222222223</v>
       </c>
       <c r="E57" s="3" t="n">
-        <v>0.0001736111111111111</v>
+        <v>4.629629629629629e-05</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B58" s="1" t="n">
         <v>45613</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>0.6304050925925926</v>
+        <v>0.7536805555555556</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>0.6304282407407408</v>
+        <v>0.7537847222222223</v>
       </c>
       <c r="E58" s="3" t="n">
-        <v>2.314814814814815e-05</v>
+        <v>4.629629629629629e-05</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B59" s="1" t="n">
         <v>45613</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>0.6304050925925926</v>
+        <v>0.7536805555555556</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>0.630462962962963</v>
+        <v>0.7537847222222223</v>
       </c>
       <c r="E59" s="3" t="n">
-        <v>5.787037037037037e-05</v>
+        <v>4.629629629629629e-05</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B60" s="1" t="n">
         <v>45613</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>0.6304050925925926</v>
+        <v>0.7547222222222222</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>0.6305208333333333</v>
+        <v>0.7547453703703704</v>
       </c>
       <c r="E60" s="3" t="n">
-        <v>0.0001157407407407407</v>
+        <v>2.314814814814815e-05</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B61" s="1" t="n">
         <v>45613</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>0.6304050925925926</v>
+        <v>0.7547222222222222</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>0.6305787037037037</v>
+        <v>0.7548263888888889</v>
       </c>
       <c r="E61" s="3" t="n">
-        <v>0.0001736111111111111</v>
+        <v>2.314814814814815e-05</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B62" s="1" t="n">
         <v>45613</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>0.630613425925926</v>
+        <v>0.7547222222222222</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>0.630636574074074</v>
+        <v>0.7548263888888889</v>
       </c>
       <c r="E62" s="3" t="n">
         <v>2.314814814814815e-05</v>
@@ -1502,67 +1502,67 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B63" s="1" t="n">
         <v>45613</v>
       </c>
       <c r="C63" s="2" t="n">
-        <v>0.630613425925926</v>
+        <v>0.7547222222222222</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>0.6306712962962963</v>
+        <v>0.7548263888888889</v>
       </c>
       <c r="E63" s="3" t="n">
-        <v>5.787037037037037e-05</v>
+        <v>2.314814814814815e-05</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B64" s="1" t="n">
         <v>45613</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>0.630613425925926</v>
+        <v>0.7564583333333333</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>0.6307291666666667</v>
+        <v>0.7564814814814815</v>
       </c>
       <c r="E64" s="3" t="n">
-        <v>0.0001157407407407407</v>
+        <v>2.314814814814815e-05</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B65" s="1" t="n">
         <v>45613</v>
       </c>
       <c r="C65" s="2" t="n">
-        <v>0.630613425925926</v>
+        <v>0.7564583333333333</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>0.6307870370370371</v>
+        <v>0.7564930555555556</v>
       </c>
       <c r="E65" s="3" t="n">
-        <v>0.0001736111111111111</v>
+        <v>2.314814814814815e-05</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B66" s="1" t="n">
         <v>45613</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>0.6312962962962962</v>
+        <v>0.7564583333333333</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>0.6313194444444444</v>
+        <v>0.7564930555555556</v>
       </c>
       <c r="E66" s="3" t="n">
         <v>2.314814814814815e-05</v>
@@ -1570,67 +1570,67 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B67" s="1" t="n">
         <v>45613</v>
       </c>
       <c r="C67" s="2" t="n">
-        <v>0.6312962962962962</v>
+        <v>0.7564583333333333</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>0.6313541666666667</v>
+        <v>0.7564930555555556</v>
       </c>
       <c r="E67" s="3" t="n">
-        <v>5.787037037037037e-05</v>
+        <v>2.314814814814815e-05</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B68" s="1" t="n">
         <v>45613</v>
       </c>
       <c r="C68" s="2" t="n">
-        <v>0.6312962962962962</v>
+        <v>0.7570717592592593</v>
       </c>
       <c r="D68" s="2" t="n">
-        <v>0.6314120370370371</v>
+        <v>0.7570949074074074</v>
       </c>
       <c r="E68" s="3" t="n">
-        <v>0.0001157407407407407</v>
+        <v>2.314814814814815e-05</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B69" s="1" t="n">
         <v>45613</v>
       </c>
       <c r="C69" s="2" t="n">
-        <v>0.6312962962962962</v>
+        <v>0.7570717592592593</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>0.6314699074074074</v>
+        <v>0.7571180555555556</v>
       </c>
       <c r="E69" s="3" t="n">
-        <v>0.0001736111111111111</v>
+        <v>2.314814814814815e-05</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B70" s="1" t="n">
         <v>45613</v>
       </c>
       <c r="C70" s="2" t="n">
-        <v>0.6315740740740741</v>
+        <v>0.7570717592592593</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>0.6315972222222223</v>
+        <v>0.7571180555555556</v>
       </c>
       <c r="E70" s="3" t="n">
         <v>2.314814814814815e-05</v>
@@ -1638,67 +1638,67 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B71" s="1" t="n">
         <v>45613</v>
       </c>
       <c r="C71" s="2" t="n">
-        <v>0.6315740740740741</v>
+        <v>0.7570717592592593</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>0.6316319444444445</v>
+        <v>0.7571180555555556</v>
       </c>
       <c r="E71" s="3" t="n">
-        <v>5.787037037037037e-05</v>
+        <v>2.314814814814815e-05</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B72" s="1" t="n">
         <v>45613</v>
       </c>
       <c r="C72" s="2" t="n">
-        <v>0.6315740740740741</v>
+        <v>0.7574537037037037</v>
       </c>
       <c r="D72" s="2" t="n">
-        <v>0.6316898148148148</v>
+        <v>0.7574768518518519</v>
       </c>
       <c r="E72" s="3" t="n">
-        <v>0.0001157407407407407</v>
+        <v>2.314814814814815e-05</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B73" s="1" t="n">
         <v>45613</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>0.6315740740740741</v>
+        <v>0.7574537037037037</v>
       </c>
       <c r="D73" s="2" t="n">
-        <v>0.6317476851851852</v>
+        <v>0.7574884259259259</v>
       </c>
       <c r="E73" s="3" t="n">
-        <v>0.0001736111111111111</v>
+        <v>2.314814814814815e-05</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B74" s="1" t="n">
         <v>45613</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>0.6320601851851851</v>
+        <v>0.7574537037037037</v>
       </c>
       <c r="D74" s="2" t="n">
-        <v>0.6320833333333333</v>
+        <v>0.7574884259259259</v>
       </c>
       <c r="E74" s="3" t="n">
         <v>2.314814814814815e-05</v>
@@ -1706,67 +1706,67 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B75" s="1" t="n">
         <v>45613</v>
       </c>
       <c r="C75" s="2" t="n">
-        <v>0.6320601851851851</v>
+        <v>0.7574537037037037</v>
       </c>
       <c r="D75" s="2" t="n">
-        <v>0.6321180555555556</v>
+        <v>0.7574884259259259</v>
       </c>
       <c r="E75" s="3" t="n">
-        <v>5.787037037037037e-05</v>
+        <v>2.314814814814815e-05</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B76" s="1" t="n">
         <v>45613</v>
       </c>
       <c r="C76" s="2" t="n">
-        <v>0.6320601851851851</v>
+        <v>0.7602777777777778</v>
       </c>
       <c r="D76" s="2" t="n">
-        <v>0.632175925925926</v>
+        <v>0.7603009259259259</v>
       </c>
       <c r="E76" s="3" t="n">
-        <v>0.0001157407407407407</v>
+        <v>2.314814814814815e-05</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B77" s="1" t="n">
         <v>45613</v>
       </c>
       <c r="C77" s="2" t="n">
-        <v>0.6320601851851851</v>
+        <v>0.7602777777777778</v>
       </c>
       <c r="D77" s="2" t="n">
-        <v>0.6322337962962963</v>
+        <v>0.7603124999999999</v>
       </c>
       <c r="E77" s="3" t="n">
-        <v>0.0001736111111111111</v>
+        <v>2.314814814814815e-05</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B78" s="1" t="n">
         <v>45613</v>
       </c>
       <c r="C78" s="2" t="n">
-        <v>0.6332060185185185</v>
+        <v>0.7602777777777778</v>
       </c>
       <c r="D78" s="2" t="n">
-        <v>0.6332291666666666</v>
+        <v>0.7603124999999999</v>
       </c>
       <c r="E78" s="3" t="n">
         <v>2.314814814814815e-05</v>
@@ -1774,135 +1774,135 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B79" s="1" t="n">
         <v>45613</v>
       </c>
       <c r="C79" s="2" t="n">
-        <v>0.6332060185185185</v>
+        <v>0.7602777777777778</v>
       </c>
       <c r="D79" s="2" t="n">
-        <v>0.6332638888888888</v>
+        <v>0.7603124999999999</v>
       </c>
       <c r="E79" s="3" t="n">
-        <v>5.787037037037037e-05</v>
+        <v>2.314814814814815e-05</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B80" s="1" t="n">
         <v>45613</v>
       </c>
       <c r="C80" s="2" t="n">
-        <v>0.6332060185185185</v>
+        <v>0.7615856481481481</v>
       </c>
       <c r="D80" s="2" t="n">
-        <v>0.6333217592592593</v>
+        <v>0.7616087962962963</v>
       </c>
       <c r="E80" s="3" t="n">
-        <v>0.0001157407407407407</v>
+        <v>2.314814814814815e-05</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B81" s="1" t="n">
         <v>45613</v>
       </c>
       <c r="C81" s="2" t="n">
-        <v>0.6332060185185185</v>
+        <v>0.7615856481481481</v>
       </c>
       <c r="D81" s="2" t="n">
-        <v>0.6333680555555555</v>
+        <v>0.7616435185185185</v>
       </c>
       <c r="E81" s="3" t="n">
-        <v>0.000162037037037037</v>
+        <v>5.787037037037037e-05</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B82" s="1" t="n">
         <v>45613</v>
       </c>
       <c r="C82" s="2" t="n">
-        <v>0.6337847222222223</v>
+        <v>0.7615856481481481</v>
       </c>
       <c r="D82" s="2" t="n">
-        <v>0.6338078703703703</v>
+        <v>0.7616550925925926</v>
       </c>
       <c r="E82" s="3" t="n">
-        <v>2.314814814814815e-05</v>
+        <v>6.944444444444444e-05</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B83" s="1" t="n">
         <v>45613</v>
       </c>
       <c r="C83" s="2" t="n">
-        <v>0.6337847222222223</v>
+        <v>0.7615856481481481</v>
       </c>
       <c r="D83" s="2" t="n">
-        <v>0.6338425925925926</v>
+        <v>0.7616550925925926</v>
       </c>
       <c r="E83" s="3" t="n">
-        <v>5.787037037037037e-05</v>
+        <v>6.944444444444444e-05</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B84" s="1" t="n">
         <v>45613</v>
       </c>
       <c r="C84" s="2" t="n">
-        <v>0.6337847222222223</v>
+        <v>0.7625578703703704</v>
       </c>
       <c r="D84" s="2" t="n">
-        <v>0.633900462962963</v>
+        <v>0.7625810185185186</v>
       </c>
       <c r="E84" s="3" t="n">
-        <v>0.0001157407407407407</v>
+        <v>2.314814814814815e-05</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B85" s="1" t="n">
         <v>45613</v>
       </c>
       <c r="C85" s="2" t="n">
-        <v>0.6337847222222223</v>
+        <v>0.7625578703703704</v>
       </c>
       <c r="D85" s="2" t="n">
-        <v>0.6339583333333333</v>
+        <v>0.7625810185185186</v>
       </c>
       <c r="E85" s="3" t="n">
-        <v>0.000162037037037037</v>
+        <v>2.314814814814815e-05</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B86" s="1" t="n">
         <v>45613</v>
       </c>
       <c r="C86" s="2" t="n">
-        <v>0.6349652777777778</v>
+        <v>0.7625578703703704</v>
       </c>
       <c r="D86" s="2" t="n">
-        <v>0.634988425925926</v>
+        <v>0.7625810185185186</v>
       </c>
       <c r="E86" s="3" t="n">
         <v>2.314814814814815e-05</v>
@@ -1910,67 +1910,67 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B87" s="1" t="n">
         <v>45613</v>
       </c>
       <c r="C87" s="2" t="n">
-        <v>0.6349652777777778</v>
+        <v>0.7625578703703704</v>
       </c>
       <c r="D87" s="2" t="n">
-        <v>0.6350231481481482</v>
+        <v>0.7625810185185186</v>
       </c>
       <c r="E87" s="3" t="n">
-        <v>5.787037037037037e-05</v>
+        <v>2.314814814814815e-05</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B88" s="1" t="n">
         <v>45613</v>
       </c>
       <c r="C88" s="2" t="n">
-        <v>0.6349652777777778</v>
+        <v>0.7627083333333333</v>
       </c>
       <c r="D88" s="2" t="n">
-        <v>0.6350810185185185</v>
+        <v>0.7628356481481482</v>
       </c>
       <c r="E88" s="3" t="n">
-        <v>0.0001157407407407407</v>
+        <v>0.0001273148148148148</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B89" s="1" t="n">
         <v>45613</v>
       </c>
       <c r="C89" s="2" t="n">
-        <v>0.6349652777777778</v>
+        <v>0.7627083333333333</v>
       </c>
       <c r="D89" s="2" t="n">
-        <v>0.6351273148148148</v>
+        <v>0.7627777777777778</v>
       </c>
       <c r="E89" s="3" t="n">
-        <v>0.000162037037037037</v>
+        <v>5.787037037037037e-05</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B90" s="1" t="n">
         <v>45613</v>
       </c>
       <c r="C90" s="2" t="n">
-        <v>0.635162037037037</v>
+        <v>0.7627083333333333</v>
       </c>
       <c r="D90" s="2" t="n">
-        <v>0.6351851851851852</v>
+        <v>0.7627314814814815</v>
       </c>
       <c r="E90" s="3" t="n">
         <v>2.314814814814815e-05</v>
@@ -1978,84 +1978,84 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B91" s="1" t="n">
         <v>45613</v>
       </c>
       <c r="C91" s="2" t="n">
-        <v>0.635162037037037</v>
+        <v>0.7627083333333333</v>
       </c>
       <c r="D91" s="2" t="n">
-        <v>0.6352199074074074</v>
+        <v>0.762962962962963</v>
       </c>
       <c r="E91" s="3" t="n">
-        <v>5.787037037037037e-05</v>
+        <v>0.0002546296296296296</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B92" s="1" t="n">
         <v>45613</v>
       </c>
       <c r="C92" s="2" t="n">
-        <v>0.635162037037037</v>
+        <v>0.7654282407407408</v>
       </c>
       <c r="D92" s="2" t="n">
-        <v>0.6352777777777778</v>
+        <v>0.7654513888888889</v>
       </c>
       <c r="E92" s="3" t="n">
-        <v>0.0001157407407407407</v>
+        <v>2.314814814814815e-05</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B93" s="1" t="n">
         <v>45613</v>
       </c>
       <c r="C93" s="2" t="n">
-        <v>0.635162037037037</v>
+        <v>0.7654282407407408</v>
       </c>
       <c r="D93" s="2" t="n">
-        <v>0.6353240740740741</v>
+        <v>0.7654861111111111</v>
       </c>
       <c r="E93" s="3" t="n">
-        <v>0.000162037037037037</v>
+        <v>5.787037037037037e-05</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B94" s="1" t="n">
         <v>45613</v>
       </c>
       <c r="C94" s="2" t="n">
-        <v>0.6420370370370371</v>
+        <v>0.7654282407407408</v>
       </c>
       <c r="D94" s="2" t="n">
-        <v>0.6420601851851852</v>
+        <v>0.7655439814814815</v>
       </c>
       <c r="E94" s="3" t="n">
-        <v>2.314814814814815e-05</v>
+        <v>0.0001157407407407407</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B95" s="1" t="n">
         <v>45613</v>
       </c>
       <c r="C95" s="2" t="n">
-        <v>0.6420370370370371</v>
+        <v>0.7658912037037037</v>
       </c>
       <c r="D95" s="2" t="n">
-        <v>0.6420601851851852</v>
+        <v>0.7659143518518519</v>
       </c>
       <c r="E95" s="3" t="n">
         <v>2.314814814814815e-05</v>
@@ -2063,16 +2063,16 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B96" s="1" t="n">
         <v>45613</v>
       </c>
       <c r="C96" s="2" t="n">
-        <v>0.6420370370370371</v>
+        <v>0.7658912037037037</v>
       </c>
       <c r="D96" s="2" t="n">
-        <v>0.6420949074074074</v>
+        <v>0.7659490740740741</v>
       </c>
       <c r="E96" s="3" t="n">
         <v>5.787037037037037e-05</v>
@@ -2080,50 +2080,50 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B97" s="1" t="n">
         <v>45613</v>
       </c>
       <c r="C97" s="2" t="n">
-        <v>0.6420370370370371</v>
+        <v>0.7658912037037037</v>
       </c>
       <c r="D97" s="2" t="n">
-        <v>0.6420949074074074</v>
+        <v>0.7659837962962963</v>
       </c>
       <c r="E97" s="3" t="n">
-        <v>5.787037037037037e-05</v>
+        <v>8.101851851851852e-05</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B98" s="1" t="n">
         <v>45613</v>
       </c>
       <c r="C98" s="2" t="n">
-        <v>0.6420370370370371</v>
+        <v>0.7658912037037037</v>
       </c>
       <c r="D98" s="2" t="n">
-        <v>0.6421527777777778</v>
+        <v>0.7659837962962963</v>
       </c>
       <c r="E98" s="3" t="n">
-        <v>0.0001157407407407407</v>
+        <v>8.101851851851852e-05</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B99" s="1" t="n">
         <v>45613</v>
       </c>
       <c r="C99" s="2" t="n">
-        <v>0.6420370370370371</v>
+        <v>0.7795833333333333</v>
       </c>
       <c r="D99" s="2" t="n">
-        <v>0.6421527777777778</v>
+        <v>0.7796990740740741</v>
       </c>
       <c r="E99" s="3" t="n">
         <v>0.0001157407407407407</v>
@@ -2131,16 +2131,16 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B100" s="1" t="n">
         <v>45613</v>
       </c>
       <c r="C100" s="2" t="n">
-        <v>0.6420370370370371</v>
+        <v>0.7795833333333333</v>
       </c>
       <c r="D100" s="2" t="n">
-        <v>0.6421527777777778</v>
+        <v>0.7796990740740741</v>
       </c>
       <c r="E100" s="3" t="n">
         <v>0.0001157407407407407</v>
@@ -2148,152 +2148,152 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B101" s="1" t="n">
         <v>45613</v>
       </c>
       <c r="C101" s="2" t="n">
-        <v>0.6437037037037037</v>
+        <v>0.7795833333333333</v>
       </c>
       <c r="D101" s="2" t="n">
-        <v>0.6437268518518519</v>
+        <v>0.7796990740740741</v>
       </c>
       <c r="E101" s="3" t="n">
-        <v>2.314814814814815e-05</v>
+        <v>0.0001157407407407407</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B102" s="1" t="n">
         <v>45613</v>
       </c>
       <c r="C102" s="2" t="n">
-        <v>0.6437037037037037</v>
+        <v>0.7795833333333333</v>
       </c>
       <c r="D102" s="2" t="n">
-        <v>0.6437615740740741</v>
+        <v>0.7797106481481482</v>
       </c>
       <c r="E102" s="3" t="n">
-        <v>5.787037037037037e-05</v>
+        <v>0.0001273148148148148</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B103" s="1" t="n">
         <v>45613</v>
       </c>
       <c r="C103" s="2" t="n">
-        <v>0.6437037037037037</v>
+        <v>0.7831944444444444</v>
       </c>
       <c r="D103" s="2" t="n">
-        <v>0.6438194444444445</v>
+        <v>0.7832175925925926</v>
       </c>
       <c r="E103" s="3" t="n">
-        <v>0.0001157407407407407</v>
+        <v>2.314814814814815e-05</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B104" s="1" t="n">
         <v>45613</v>
       </c>
       <c r="C104" s="2" t="n">
-        <v>0.6437037037037037</v>
+        <v>0.7831944444444444</v>
       </c>
       <c r="D104" s="2" t="n">
-        <v>0.6438657407407408</v>
+        <v>0.7832523148148148</v>
       </c>
       <c r="E104" s="3" t="n">
-        <v>0.000162037037037037</v>
+        <v>5.787037037037037e-05</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B105" s="1" t="n">
         <v>45613</v>
       </c>
       <c r="C105" s="2" t="n">
-        <v>0.6440856481481482</v>
+        <v>0.7831944444444444</v>
       </c>
       <c r="D105" s="2" t="n">
-        <v>0.6441087962962962</v>
+        <v>0.7833101851851851</v>
       </c>
       <c r="E105" s="3" t="n">
-        <v>2.314814814814815e-05</v>
+        <v>0.0001157407407407407</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B106" s="1" t="n">
         <v>45613</v>
       </c>
       <c r="C106" s="2" t="n">
-        <v>0.6440856481481482</v>
+        <v>0.7831944444444444</v>
       </c>
       <c r="D106" s="2" t="n">
-        <v>0.6441435185185185</v>
+        <v>0.7833217592592593</v>
       </c>
       <c r="E106" s="3" t="n">
-        <v>5.787037037037037e-05</v>
+        <v>0.0001157407407407407</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B107" s="1" t="n">
         <v>45613</v>
       </c>
       <c r="C107" s="2" t="n">
-        <v>0.6440856481481482</v>
+        <v>0.7849652777777778</v>
       </c>
       <c r="D107" s="2" t="n">
-        <v>0.6442013888888889</v>
+        <v>0.7849884259259259</v>
       </c>
       <c r="E107" s="3" t="n">
-        <v>0.0001157407407407407</v>
+        <v>2.314814814814815e-05</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B108" s="1" t="n">
         <v>45613</v>
       </c>
       <c r="C108" s="2" t="n">
-        <v>0.6440856481481482</v>
+        <v>0.7849652777777778</v>
       </c>
       <c r="D108" s="2" t="n">
-        <v>0.6442592592592593</v>
+        <v>0.7849884259259259</v>
       </c>
       <c r="E108" s="3" t="n">
-        <v>0.000162037037037037</v>
+        <v>2.314814814814815e-05</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B109" s="1" t="n">
         <v>45613</v>
       </c>
       <c r="C109" s="2" t="n">
-        <v>0.6453935185185186</v>
+        <v>0.7849652777777778</v>
       </c>
       <c r="D109" s="2" t="n">
-        <v>0.6454166666666666</v>
+        <v>0.7849884259259259</v>
       </c>
       <c r="E109" s="3" t="n">
         <v>2.314814814814815e-05</v>
@@ -2301,1515 +2301,274 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B110" s="1" t="n">
         <v>45613</v>
       </c>
       <c r="C110" s="2" t="n">
-        <v>0.6453935185185186</v>
+        <v>0.7849652777777778</v>
       </c>
       <c r="D110" s="2" t="n">
-        <v>0.6454513888888889</v>
+        <v>0.7849884259259259</v>
       </c>
       <c r="E110" s="3" t="n">
-        <v>5.787037037037037e-05</v>
+        <v>2.314814814814815e-05</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B111" s="1" t="n">
         <v>45613</v>
       </c>
       <c r="C111" s="2" t="n">
-        <v>0.6453935185185186</v>
+        <v>0.8180092592592593</v>
       </c>
       <c r="D111" s="2" t="n">
-        <v>0.6455092592592593</v>
+        <v>0.8180324074074075</v>
       </c>
       <c r="E111" s="3" t="n">
-        <v>0.0001157407407407407</v>
+        <v>2.314814814814815e-05</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B112" s="1" t="n">
         <v>45613</v>
       </c>
       <c r="C112" s="2" t="n">
-        <v>0.6453935185185186</v>
+        <v>0.8180092592592593</v>
       </c>
       <c r="D112" s="2" t="n">
-        <v>0.6455555555555555</v>
+        <v>0.8180787037037037</v>
       </c>
       <c r="E112" s="3" t="n">
-        <v>0.000162037037037037</v>
+        <v>4.629629629629629e-05</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B113" s="1" t="n">
         <v>45613</v>
       </c>
       <c r="C113" s="2" t="n">
-        <v>0.6455787037037037</v>
+        <v>0.8180092592592593</v>
       </c>
       <c r="D113" s="2" t="n">
-        <v>0.6456018518518518</v>
+        <v>0.8180787037037037</v>
       </c>
       <c r="E113" s="3" t="n">
-        <v>2.314814814814815e-05</v>
+        <v>4.629629629629629e-05</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B114" s="1" t="n">
         <v>45613</v>
       </c>
       <c r="C114" s="2" t="n">
-        <v>0.6455787037037037</v>
+        <v>0.8180092592592593</v>
       </c>
       <c r="D114" s="2" t="n">
-        <v>0.645636574074074</v>
+        <v>0.8180787037037037</v>
       </c>
       <c r="E114" s="3" t="n">
-        <v>5.787037037037037e-05</v>
+        <v>4.629629629629629e-05</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B115" s="1" t="n">
         <v>45613</v>
       </c>
       <c r="C115" s="2" t="n">
-        <v>0.6455787037037037</v>
+        <v>0.826412037037037</v>
       </c>
       <c r="D115" s="2" t="n">
-        <v>0.6456944444444445</v>
+        <v>0.8264583333333333</v>
       </c>
       <c r="E115" s="3" t="n">
-        <v>0.0001157407407407407</v>
+        <v>3.472222222222222e-05</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B116" s="1" t="n">
         <v>45613</v>
       </c>
       <c r="C116" s="2" t="n">
-        <v>0.6455787037037037</v>
+        <v>0.826412037037037</v>
       </c>
       <c r="D116" s="2" t="n">
-        <v>0.6457407407407407</v>
+        <v>0.8264699074074074</v>
       </c>
       <c r="E116" s="3" t="n">
-        <v>0.000162037037037037</v>
+        <v>5.787037037037037e-05</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B117" s="1" t="n">
         <v>45613</v>
       </c>
       <c r="C117" s="2" t="n">
-        <v>0.6458217592592592</v>
+        <v>0.826412037037037</v>
       </c>
       <c r="D117" s="2" t="n">
-        <v>0.6458449074074074</v>
+        <v>0.8265277777777778</v>
       </c>
       <c r="E117" s="3" t="n">
-        <v>2.314814814814815e-05</v>
+        <v>0.0001157407407407407</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B118" s="1" t="n">
         <v>45613</v>
       </c>
       <c r="C118" s="2" t="n">
-        <v>0.6458217592592592</v>
+        <v>0.8277083333333334</v>
       </c>
       <c r="D118" s="2" t="n">
-        <v>0.6458796296296296</v>
+        <v>0.8279050925925926</v>
       </c>
       <c r="E118" s="3" t="n">
-        <v>5.787037037037037e-05</v>
+        <v>0.0001851851851851852</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B119" s="1" t="n">
         <v>45613</v>
       </c>
       <c r="C119" s="2" t="n">
-        <v>0.6458217592592592</v>
+        <v>0.8277083333333334</v>
       </c>
       <c r="D119" s="2" t="n">
-        <v>0.6459375000000001</v>
+        <v>0.8279050925925926</v>
       </c>
       <c r="E119" s="3" t="n">
-        <v>0.0001157407407407407</v>
+        <v>0.0001851851851851852</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B120" s="1" t="n">
         <v>45613</v>
       </c>
       <c r="C120" s="2" t="n">
-        <v>0.6458217592592592</v>
+        <v>0.8277083333333334</v>
       </c>
       <c r="D120" s="2" t="n">
-        <v>0.6459953703703704</v>
+        <v>0.8279050925925926</v>
       </c>
       <c r="E120" s="3" t="n">
-        <v>0.000162037037037037</v>
+        <v>0.0001851851851851852</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B121" s="1" t="n">
         <v>45613</v>
       </c>
       <c r="C121" s="2" t="n">
-        <v>0.6460185185185185</v>
+        <v>0.8277083333333334</v>
       </c>
       <c r="D121" s="2" t="n">
-        <v>0.6460416666666666</v>
+        <v>0.8281018518518518</v>
       </c>
       <c r="E121" s="3" t="n">
-        <v>2.314814814814815e-05</v>
+        <v>0.0003819444444444445</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B122" s="1" t="n">
         <v>45613</v>
       </c>
       <c r="C122" s="2" t="n">
-        <v>0.6460185185185185</v>
+        <v>0.8296064814814815</v>
       </c>
       <c r="D122" s="2" t="n">
-        <v>0.6460763888888889</v>
+        <v>0.8296296296296296</v>
       </c>
       <c r="E122" s="3" t="n">
-        <v>5.787037037037037e-05</v>
+        <v>2.314814814814815e-05</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B123" s="1" t="n">
         <v>45613</v>
       </c>
       <c r="C123" s="2" t="n">
-        <v>0.6460185185185185</v>
+        <v>0.8296064814814815</v>
       </c>
       <c r="D123" s="2" t="n">
-        <v>0.6461342592592593</v>
+        <v>0.8296412037037038</v>
       </c>
       <c r="E123" s="3" t="n">
-        <v>0.0001157407407407407</v>
+        <v>2.314814814814815e-05</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B124" s="1" t="n">
         <v>45613</v>
       </c>
       <c r="C124" s="2" t="n">
-        <v>0.6460185185185185</v>
+        <v>0.8296064814814815</v>
       </c>
       <c r="D124" s="2" t="n">
-        <v>0.6461805555555555</v>
+        <v>0.8296412037037038</v>
       </c>
       <c r="E124" s="3" t="n">
-        <v>0.000162037037037037</v>
+        <v>3.472222222222222e-05</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B125" s="1" t="n">
         <v>45613</v>
       </c>
       <c r="C125" s="2" t="n">
-        <v>0.6490162037037037</v>
+        <v>0.8296064814814815</v>
       </c>
       <c r="D125" s="2" t="n">
-        <v>0.6490393518518518</v>
+        <v>0.8296412037037038</v>
       </c>
       <c r="E125" s="3" t="n">
-        <v>2.314814814814815e-05</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="n">
-        <v>2</v>
-      </c>
-      <c r="B126" s="1" t="n">
-        <v>45613</v>
-      </c>
-      <c r="C126" s="2" t="n">
-        <v>0.6490162037037037</v>
-      </c>
-      <c r="D126" s="2" t="n">
-        <v>0.649074074074074</v>
-      </c>
-      <c r="E126" s="3" t="n">
-        <v>5.787037037037037e-05</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="n">
-        <v>3</v>
-      </c>
-      <c r="B127" s="1" t="n">
-        <v>45613</v>
-      </c>
-      <c r="C127" s="2" t="n">
-        <v>0.6490162037037037</v>
-      </c>
-      <c r="D127" s="2" t="n">
-        <v>0.6491319444444444</v>
-      </c>
-      <c r="E127" s="3" t="n">
-        <v>0.0001157407407407407</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="n">
-        <v>1</v>
-      </c>
-      <c r="B128" s="1" t="n">
-        <v>45613</v>
-      </c>
-      <c r="C128" s="2" t="n">
-        <v>0.649525462962963</v>
-      </c>
-      <c r="D128" s="2" t="n">
-        <v>0.6495486111111111</v>
-      </c>
-      <c r="E128" s="3" t="n">
-        <v>2.314814814814815e-05</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="n">
-        <v>2</v>
-      </c>
-      <c r="B129" s="1" t="n">
-        <v>45613</v>
-      </c>
-      <c r="C129" s="2" t="n">
-        <v>0.649525462962963</v>
-      </c>
-      <c r="D129" s="2" t="n">
-        <v>0.6495833333333333</v>
-      </c>
-      <c r="E129" s="3" t="n">
-        <v>5.787037037037037e-05</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="n">
-        <v>3</v>
-      </c>
-      <c r="B130" s="1" t="n">
-        <v>45613</v>
-      </c>
-      <c r="C130" s="2" t="n">
-        <v>0.649525462962963</v>
-      </c>
-      <c r="D130" s="2" t="n">
-        <v>0.6496412037037037</v>
-      </c>
-      <c r="E130" s="3" t="n">
-        <v>0.0001157407407407407</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="n">
-        <v>0</v>
-      </c>
-      <c r="B131" s="1" t="n">
-        <v>45613</v>
-      </c>
-      <c r="C131" s="2" t="n">
-        <v>0.649525462962963</v>
-      </c>
-      <c r="D131" s="2" t="n">
-        <v>0.6496875</v>
-      </c>
-      <c r="E131" s="3" t="n">
-        <v>0.000162037037037037</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="n">
-        <v>1</v>
-      </c>
-      <c r="B132" s="1" t="n">
-        <v>45613</v>
-      </c>
-      <c r="C132" s="2" t="n">
-        <v>0.6498842592592593</v>
-      </c>
-      <c r="D132" s="2" t="n">
-        <v>0.6499074074074074</v>
-      </c>
-      <c r="E132" s="3" t="n">
-        <v>2.314814814814815e-05</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="n">
-        <v>2</v>
-      </c>
-      <c r="B133" s="1" t="n">
-        <v>45613</v>
-      </c>
-      <c r="C133" s="2" t="n">
-        <v>0.6498842592592593</v>
-      </c>
-      <c r="D133" s="2" t="n">
-        <v>0.6499421296296296</v>
-      </c>
-      <c r="E133" s="3" t="n">
-        <v>5.787037037037037e-05</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="n">
-        <v>3</v>
-      </c>
-      <c r="B134" s="1" t="n">
-        <v>45613</v>
-      </c>
-      <c r="C134" s="2" t="n">
-        <v>0.6498842592592593</v>
-      </c>
-      <c r="D134" s="2" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="E134" s="3" t="n">
-        <v>0.0001157407407407407</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="n">
-        <v>0</v>
-      </c>
-      <c r="B135" s="1" t="n">
-        <v>45613</v>
-      </c>
-      <c r="C135" s="2" t="n">
-        <v>0.6498842592592593</v>
-      </c>
-      <c r="D135" s="2" t="n">
-        <v>0.6500578703703703</v>
-      </c>
-      <c r="E135" s="3" t="n">
-        <v>0.000162037037037037</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="n">
-        <v>1</v>
-      </c>
-      <c r="B136" s="1" t="n">
-        <v>45613</v>
-      </c>
-      <c r="C136" s="2" t="n">
-        <v>0.6566203703703704</v>
-      </c>
-      <c r="D136" s="2" t="n">
-        <v>0.6566435185185185</v>
-      </c>
-      <c r="E136" s="3" t="n">
-        <v>2.314814814814815e-05</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="n">
-        <v>2</v>
-      </c>
-      <c r="B137" s="1" t="n">
-        <v>45613</v>
-      </c>
-      <c r="C137" s="2" t="n">
-        <v>0.6566203703703704</v>
-      </c>
-      <c r="D137" s="2" t="n">
-        <v>0.6566782407407408</v>
-      </c>
-      <c r="E137" s="3" t="n">
-        <v>5.787037037037037e-05</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="n">
-        <v>3</v>
-      </c>
-      <c r="B138" s="1" t="n">
-        <v>45613</v>
-      </c>
-      <c r="C138" s="2" t="n">
-        <v>0.6566203703703704</v>
-      </c>
-      <c r="D138" s="2" t="n">
-        <v>0.6567361111111111</v>
-      </c>
-      <c r="E138" s="3" t="n">
-        <v>0.0001157407407407407</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="n">
-        <v>0</v>
-      </c>
-      <c r="B139" s="1" t="n">
-        <v>45613</v>
-      </c>
-      <c r="C139" s="2" t="n">
-        <v>0.6566203703703704</v>
-      </c>
-      <c r="D139" s="2" t="n">
-        <v>0.6567824074074075</v>
-      </c>
-      <c r="E139" s="3" t="n">
-        <v>0.000162037037037037</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="n">
-        <v>1</v>
-      </c>
-      <c r="B140" s="1" t="n">
-        <v>45613</v>
-      </c>
-      <c r="C140" s="2" t="n">
-        <v>0.656886574074074</v>
-      </c>
-      <c r="D140" s="2" t="n">
-        <v>0.6569097222222222</v>
-      </c>
-      <c r="E140" s="3" t="n">
-        <v>2.314814814814815e-05</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="n">
-        <v>2</v>
-      </c>
-      <c r="B141" s="1" t="n">
-        <v>45613</v>
-      </c>
-      <c r="C141" s="2" t="n">
-        <v>0.656886574074074</v>
-      </c>
-      <c r="D141" s="2" t="n">
-        <v>0.6569444444444444</v>
-      </c>
-      <c r="E141" s="3" t="n">
-        <v>5.787037037037037e-05</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="n">
-        <v>3</v>
-      </c>
-      <c r="B142" s="1" t="n">
-        <v>45613</v>
-      </c>
-      <c r="C142" s="2" t="n">
-        <v>0.656886574074074</v>
-      </c>
-      <c r="D142" s="2" t="n">
-        <v>0.6570023148148149</v>
-      </c>
-      <c r="E142" s="3" t="n">
-        <v>0.0001157407407407407</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="n">
-        <v>1</v>
-      </c>
-      <c r="B143" s="1" t="n">
-        <v>45613</v>
-      </c>
-      <c r="C143" s="2" t="n">
-        <v>0.6580555555555555</v>
-      </c>
-      <c r="D143" s="2" t="n">
-        <v>0.6580787037037037</v>
-      </c>
-      <c r="E143" s="3" t="n">
-        <v>2.314814814814815e-05</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="n">
-        <v>2</v>
-      </c>
-      <c r="B144" s="1" t="n">
-        <v>45613</v>
-      </c>
-      <c r="C144" s="2" t="n">
-        <v>0.6580555555555555</v>
-      </c>
-      <c r="D144" s="2" t="n">
-        <v>0.6581134259259259</v>
-      </c>
-      <c r="E144" s="3" t="n">
-        <v>5.787037037037037e-05</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="n">
-        <v>3</v>
-      </c>
-      <c r="B145" s="1" t="n">
-        <v>45613</v>
-      </c>
-      <c r="C145" s="2" t="n">
-        <v>0.6580555555555555</v>
-      </c>
-      <c r="D145" s="2" t="n">
-        <v>0.6581712962962963</v>
-      </c>
-      <c r="E145" s="3" t="n">
-        <v>0.0001157407407407407</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="n">
-        <v>1</v>
-      </c>
-      <c r="B146" s="1" t="n">
-        <v>45613</v>
-      </c>
-      <c r="C146" s="2" t="n">
-        <v>0.6582523148148148</v>
-      </c>
-      <c r="D146" s="2" t="n">
-        <v>0.6582754629629629</v>
-      </c>
-      <c r="E146" s="3" t="n">
-        <v>2.314814814814815e-05</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="n">
-        <v>2</v>
-      </c>
-      <c r="B147" s="1" t="n">
-        <v>45613</v>
-      </c>
-      <c r="C147" s="2" t="n">
-        <v>0.6582523148148148</v>
-      </c>
-      <c r="D147" s="2" t="n">
-        <v>0.6583101851851851</v>
-      </c>
-      <c r="E147" s="3" t="n">
-        <v>5.787037037037037e-05</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="n">
-        <v>3</v>
-      </c>
-      <c r="B148" s="1" t="n">
-        <v>45613</v>
-      </c>
-      <c r="C148" s="2" t="n">
-        <v>0.6582523148148148</v>
-      </c>
-      <c r="D148" s="2" t="n">
-        <v>0.6583680555555556</v>
-      </c>
-      <c r="E148" s="3" t="n">
-        <v>0.0001157407407407407</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="n">
-        <v>0</v>
-      </c>
-      <c r="B149" s="1" t="n">
-        <v>45613</v>
-      </c>
-      <c r="C149" s="2" t="n">
-        <v>0.6582523148148148</v>
-      </c>
-      <c r="D149" s="2" t="n">
-        <v>0.658425925925926</v>
-      </c>
-      <c r="E149" s="3" t="n">
-        <v>0.000162037037037037</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="n">
-        <v>1</v>
-      </c>
-      <c r="B150" s="1" t="n">
-        <v>45613</v>
-      </c>
-      <c r="C150" s="2" t="n">
-        <v>0.6586805555555556</v>
-      </c>
-      <c r="D150" s="2" t="n">
-        <v>0.6587037037037037</v>
-      </c>
-      <c r="E150" s="3" t="n">
-        <v>2.314814814814815e-05</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="n">
-        <v>2</v>
-      </c>
-      <c r="B151" s="1" t="n">
-        <v>45613</v>
-      </c>
-      <c r="C151" s="2" t="n">
-        <v>0.6586805555555556</v>
-      </c>
-      <c r="D151" s="2" t="n">
-        <v>0.6587384259259259</v>
-      </c>
-      <c r="E151" s="3" t="n">
-        <v>5.787037037037037e-05</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="n">
-        <v>3</v>
-      </c>
-      <c r="B152" s="1" t="n">
-        <v>45613</v>
-      </c>
-      <c r="C152" s="2" t="n">
-        <v>0.6586805555555556</v>
-      </c>
-      <c r="D152" s="2" t="n">
-        <v>0.6587962962962963</v>
-      </c>
-      <c r="E152" s="3" t="n">
-        <v>0.0001157407407407407</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="n">
-        <v>0</v>
-      </c>
-      <c r="B153" s="1" t="n">
-        <v>45613</v>
-      </c>
-      <c r="C153" s="2" t="n">
-        <v>0.6586805555555556</v>
-      </c>
-      <c r="D153" s="2" t="n">
-        <v>0.6588425925925926</v>
-      </c>
-      <c r="E153" s="3" t="n">
-        <v>0.000162037037037037</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="n">
-        <v>1</v>
-      </c>
-      <c r="B154" s="1" t="n">
-        <v>45613</v>
-      </c>
-      <c r="C154" s="2" t="n">
-        <v>0.6589236111111111</v>
-      </c>
-      <c r="D154" s="2" t="n">
-        <v>0.6589467592592593</v>
-      </c>
-      <c r="E154" s="3" t="n">
-        <v>2.314814814814815e-05</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="n">
-        <v>2</v>
-      </c>
-      <c r="B155" s="1" t="n">
-        <v>45613</v>
-      </c>
-      <c r="C155" s="2" t="n">
-        <v>0.6589236111111111</v>
-      </c>
-      <c r="D155" s="2" t="n">
-        <v>0.6589814814814815</v>
-      </c>
-      <c r="E155" s="3" t="n">
-        <v>5.787037037037037e-05</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="n">
-        <v>3</v>
-      </c>
-      <c r="B156" s="1" t="n">
-        <v>45613</v>
-      </c>
-      <c r="C156" s="2" t="n">
-        <v>0.6589236111111111</v>
-      </c>
-      <c r="D156" s="2" t="n">
-        <v>0.6590393518518518</v>
-      </c>
-      <c r="E156" s="3" t="n">
-        <v>0.0001157407407407407</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="n">
-        <v>0</v>
-      </c>
-      <c r="B157" s="1" t="n">
-        <v>45613</v>
-      </c>
-      <c r="C157" s="2" t="n">
-        <v>0.6589236111111111</v>
-      </c>
-      <c r="D157" s="2" t="n">
-        <v>0.6590856481481482</v>
-      </c>
-      <c r="E157" s="3" t="n">
-        <v>0.000162037037037037</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="n">
-        <v>1</v>
-      </c>
-      <c r="B158" s="1" t="n">
-        <v>45613</v>
-      </c>
-      <c r="C158" s="2" t="n">
-        <v>0.6625231481481482</v>
-      </c>
-      <c r="D158" s="2" t="n">
-        <v>0.6625462962962962</v>
-      </c>
-      <c r="E158" s="3" t="n">
-        <v>2.314814814814815e-05</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="n">
-        <v>2</v>
-      </c>
-      <c r="B159" s="1" t="n">
-        <v>45613</v>
-      </c>
-      <c r="C159" s="2" t="n">
-        <v>0.6625231481481482</v>
-      </c>
-      <c r="D159" s="2" t="n">
-        <v>0.6625810185185185</v>
-      </c>
-      <c r="E159" s="3" t="n">
-        <v>5.787037037037037e-05</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="n">
-        <v>3</v>
-      </c>
-      <c r="B160" s="1" t="n">
-        <v>45613</v>
-      </c>
-      <c r="C160" s="2" t="n">
-        <v>0.6625231481481482</v>
-      </c>
-      <c r="D160" s="2" t="n">
-        <v>0.6626388888888889</v>
-      </c>
-      <c r="E160" s="3" t="n">
-        <v>0.0001157407407407407</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="n">
-        <v>0</v>
-      </c>
-      <c r="B161" s="1" t="n">
-        <v>45613</v>
-      </c>
-      <c r="C161" s="2" t="n">
-        <v>0.6625231481481482</v>
-      </c>
-      <c r="D161" s="2" t="n">
-        <v>0.6626851851851852</v>
-      </c>
-      <c r="E161" s="3" t="n">
-        <v>0.000162037037037037</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="n">
-        <v>1</v>
-      </c>
-      <c r="B162" s="1" t="n">
-        <v>45613</v>
-      </c>
-      <c r="C162" s="2" t="n">
-        <v>0.6632870370370371</v>
-      </c>
-      <c r="D162" s="2" t="n">
-        <v>0.6633101851851851</v>
-      </c>
-      <c r="E162" s="3" t="n">
-        <v>2.314814814814815e-05</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="n">
-        <v>1</v>
-      </c>
-      <c r="B163" s="1" t="n">
-        <v>45613</v>
-      </c>
-      <c r="C163" s="2" t="n">
-        <v>0.6634606481481482</v>
-      </c>
-      <c r="D163" s="2" t="n">
-        <v>0.6634837962962963</v>
-      </c>
-      <c r="E163" s="3" t="n">
-        <v>2.314814814814815e-05</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="n">
-        <v>2</v>
-      </c>
-      <c r="B164" s="1" t="n">
-        <v>45613</v>
-      </c>
-      <c r="C164" s="2" t="n">
-        <v>0.6634606481481482</v>
-      </c>
-      <c r="D164" s="2" t="n">
-        <v>0.6635185185185185</v>
-      </c>
-      <c r="E164" s="3" t="n">
-        <v>5.787037037037037e-05</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="n">
-        <v>3</v>
-      </c>
-      <c r="B165" s="1" t="n">
-        <v>45613</v>
-      </c>
-      <c r="C165" s="2" t="n">
-        <v>0.6634606481481482</v>
-      </c>
-      <c r="D165" s="2" t="n">
-        <v>0.6635763888888889</v>
-      </c>
-      <c r="E165" s="3" t="n">
-        <v>0.0001157407407407407</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="n">
-        <v>0</v>
-      </c>
-      <c r="B166" s="1" t="n">
-        <v>45613</v>
-      </c>
-      <c r="C166" s="2" t="n">
-        <v>0.6634606481481482</v>
-      </c>
-      <c r="D166" s="2" t="n">
-        <v>0.6636226851851852</v>
-      </c>
-      <c r="E166" s="3" t="n">
-        <v>0.000162037037037037</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="n">
-        <v>1</v>
-      </c>
-      <c r="B167" s="1" t="n">
-        <v>45613</v>
-      </c>
-      <c r="C167" s="2" t="n">
-        <v>0.6637152777777777</v>
-      </c>
-      <c r="D167" s="2" t="n">
-        <v>0.6637384259259259</v>
-      </c>
-      <c r="E167" s="3" t="n">
-        <v>2.314814814814815e-05</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="n">
-        <v>2</v>
-      </c>
-      <c r="B168" s="1" t="n">
-        <v>45613</v>
-      </c>
-      <c r="C168" s="2" t="n">
-        <v>0.6637152777777777</v>
-      </c>
-      <c r="D168" s="2" t="n">
-        <v>0.6637731481481481</v>
-      </c>
-      <c r="E168" s="3" t="n">
-        <v>5.787037037037037e-05</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="n">
-        <v>3</v>
-      </c>
-      <c r="B169" s="1" t="n">
-        <v>45613</v>
-      </c>
-      <c r="C169" s="2" t="n">
-        <v>0.6637152777777777</v>
-      </c>
-      <c r="D169" s="2" t="n">
-        <v>0.6638310185185186</v>
-      </c>
-      <c r="E169" s="3" t="n">
-        <v>0.0001157407407407407</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="n">
-        <v>0</v>
-      </c>
-      <c r="B170" s="1" t="n">
-        <v>45613</v>
-      </c>
-      <c r="C170" s="2" t="n">
-        <v>0.6637152777777777</v>
-      </c>
-      <c r="D170" s="2" t="n">
-        <v>0.6638773148148148</v>
-      </c>
-      <c r="E170" s="3" t="n">
-        <v>0.000162037037037037</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="n">
-        <v>1</v>
-      </c>
-      <c r="B171" s="1" t="n">
-        <v>45613</v>
-      </c>
-      <c r="C171" s="2" t="n">
-        <v>0.6640856481481482</v>
-      </c>
-      <c r="D171" s="2" t="n">
-        <v>0.6641087962962963</v>
-      </c>
-      <c r="E171" s="3" t="n">
-        <v>2.314814814814815e-05</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="n">
-        <v>2</v>
-      </c>
-      <c r="B172" s="1" t="n">
-        <v>45613</v>
-      </c>
-      <c r="C172" s="2" t="n">
-        <v>0.6640856481481482</v>
-      </c>
-      <c r="D172" s="2" t="n">
-        <v>0.6641435185185185</v>
-      </c>
-      <c r="E172" s="3" t="n">
-        <v>5.787037037037037e-05</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="n">
-        <v>3</v>
-      </c>
-      <c r="B173" s="1" t="n">
-        <v>45613</v>
-      </c>
-      <c r="C173" s="2" t="n">
-        <v>0.6640856481481482</v>
-      </c>
-      <c r="D173" s="2" t="n">
-        <v>0.6642013888888889</v>
-      </c>
-      <c r="E173" s="3" t="n">
-        <v>0.0001157407407407407</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="n">
-        <v>0</v>
-      </c>
-      <c r="B174" s="1" t="n">
-        <v>45613</v>
-      </c>
-      <c r="C174" s="2" t="n">
-        <v>0.6640856481481482</v>
-      </c>
-      <c r="D174" s="2" t="n">
-        <v>0.6642476851851852</v>
-      </c>
-      <c r="E174" s="3" t="n">
-        <v>0.000162037037037037</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="n">
-        <v>1</v>
-      </c>
-      <c r="B175" s="1" t="n">
-        <v>45613</v>
-      </c>
-      <c r="C175" s="2" t="n">
-        <v>0.6648148148148149</v>
-      </c>
-      <c r="D175" s="2" t="n">
-        <v>0.6648379629629629</v>
-      </c>
-      <c r="E175" s="3" t="n">
-        <v>2.314814814814815e-05</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="n">
-        <v>2</v>
-      </c>
-      <c r="B176" s="1" t="n">
-        <v>45613</v>
-      </c>
-      <c r="C176" s="2" t="n">
-        <v>0.6648148148148149</v>
-      </c>
-      <c r="D176" s="2" t="n">
-        <v>0.6648726851851852</v>
-      </c>
-      <c r="E176" s="3" t="n">
-        <v>5.787037037037037e-05</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="n">
-        <v>3</v>
-      </c>
-      <c r="B177" s="1" t="n">
-        <v>45613</v>
-      </c>
-      <c r="C177" s="2" t="n">
-        <v>0.6648148148148149</v>
-      </c>
-      <c r="D177" s="2" t="n">
-        <v>0.6649305555555556</v>
-      </c>
-      <c r="E177" s="3" t="n">
-        <v>0.0001157407407407407</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="n">
-        <v>0</v>
-      </c>
-      <c r="B178" s="1" t="n">
-        <v>45613</v>
-      </c>
-      <c r="C178" s="2" t="n">
-        <v>0.6648148148148149</v>
-      </c>
-      <c r="D178" s="2" t="n">
-        <v>0.6649884259259259</v>
-      </c>
-      <c r="E178" s="3" t="n">
-        <v>0.000162037037037037</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="n">
-        <v>1</v>
-      </c>
-      <c r="B179" s="1" t="n">
-        <v>45613</v>
-      </c>
-      <c r="C179" s="2" t="n">
-        <v>0.6651736111111111</v>
-      </c>
-      <c r="D179" s="2" t="n">
-        <v>0.6651967592592593</v>
-      </c>
-      <c r="E179" s="3" t="n">
-        <v>2.314814814814815e-05</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="n">
-        <v>2</v>
-      </c>
-      <c r="B180" s="1" t="n">
-        <v>45613</v>
-      </c>
-      <c r="C180" s="2" t="n">
-        <v>0.6651736111111111</v>
-      </c>
-      <c r="D180" s="2" t="n">
-        <v>0.6652314814814815</v>
-      </c>
-      <c r="E180" s="3" t="n">
-        <v>5.787037037037037e-05</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="n">
-        <v>3</v>
-      </c>
-      <c r="B181" s="1" t="n">
-        <v>45613</v>
-      </c>
-      <c r="C181" s="2" t="n">
-        <v>0.6651736111111111</v>
-      </c>
-      <c r="D181" s="2" t="n">
-        <v>0.6652893518518519</v>
-      </c>
-      <c r="E181" s="3" t="n">
-        <v>0.0001157407407407407</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="n">
-        <v>0</v>
-      </c>
-      <c r="B182" s="1" t="n">
-        <v>45613</v>
-      </c>
-      <c r="C182" s="2" t="n">
-        <v>0.6651736111111111</v>
-      </c>
-      <c r="D182" s="2" t="n">
-        <v>0.6653356481481482</v>
-      </c>
-      <c r="E182" s="3" t="n">
-        <v>0.000162037037037037</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="n">
-        <v>1</v>
-      </c>
-      <c r="B183" s="1" t="n">
-        <v>45613</v>
-      </c>
-      <c r="C183" s="2" t="n">
-        <v>0.6654513888888889</v>
-      </c>
-      <c r="D183" s="2" t="n">
-        <v>0.6654745370370371</v>
-      </c>
-      <c r="E183" s="3" t="n">
-        <v>2.314814814814815e-05</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="n">
-        <v>2</v>
-      </c>
-      <c r="B184" s="1" t="n">
-        <v>45613</v>
-      </c>
-      <c r="C184" s="2" t="n">
-        <v>0.6654513888888889</v>
-      </c>
-      <c r="D184" s="2" t="n">
-        <v>0.6655092592592593</v>
-      </c>
-      <c r="E184" s="3" t="n">
-        <v>5.787037037037037e-05</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="n">
-        <v>3</v>
-      </c>
-      <c r="B185" s="1" t="n">
-        <v>45613</v>
-      </c>
-      <c r="C185" s="2" t="n">
-        <v>0.6654513888888889</v>
-      </c>
-      <c r="D185" s="2" t="n">
-        <v>0.6655671296296296</v>
-      </c>
-      <c r="E185" s="3" t="n">
-        <v>0.0001157407407407407</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="n">
-        <v>0</v>
-      </c>
-      <c r="B186" s="1" t="n">
-        <v>45613</v>
-      </c>
-      <c r="C186" s="2" t="n">
-        <v>0.6654513888888889</v>
-      </c>
-      <c r="D186" s="2" t="n">
-        <v>0.6656134259259259</v>
-      </c>
-      <c r="E186" s="3" t="n">
-        <v>0.000162037037037037</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="n">
-        <v>1</v>
-      </c>
-      <c r="B187" s="1" t="n">
-        <v>45613</v>
-      </c>
-      <c r="C187" s="2" t="n">
-        <v>0.6656365740740741</v>
-      </c>
-      <c r="D187" s="2" t="n">
-        <v>0.6656597222222222</v>
-      </c>
-      <c r="E187" s="3" t="n">
-        <v>2.314814814814815e-05</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="n">
-        <v>2</v>
-      </c>
-      <c r="B188" s="1" t="n">
-        <v>45613</v>
-      </c>
-      <c r="C188" s="2" t="n">
-        <v>0.6656365740740741</v>
-      </c>
-      <c r="D188" s="2" t="n">
-        <v>0.6656944444444445</v>
-      </c>
-      <c r="E188" s="3" t="n">
-        <v>5.787037037037037e-05</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="n">
-        <v>3</v>
-      </c>
-      <c r="B189" s="1" t="n">
-        <v>45613</v>
-      </c>
-      <c r="C189" s="2" t="n">
-        <v>0.6656365740740741</v>
-      </c>
-      <c r="D189" s="2" t="n">
-        <v>0.6657523148148148</v>
-      </c>
-      <c r="E189" s="3" t="n">
-        <v>0.0001157407407407407</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="n">
-        <v>4</v>
-      </c>
-      <c r="B190" s="1" t="n">
-        <v>45613</v>
-      </c>
-      <c r="C190" s="2" t="n">
-        <v>0.6656365740740741</v>
-      </c>
-      <c r="D190" s="2" t="n">
-        <v>0.6657986111111112</v>
-      </c>
-      <c r="E190" s="3" t="n">
-        <v>0.000162037037037037</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="n">
-        <v>4</v>
-      </c>
-      <c r="B191" s="1" t="n">
-        <v>45613</v>
-      </c>
-      <c r="C191" s="2" t="n">
-        <v>0.6658217592592592</v>
-      </c>
-      <c r="D191" s="2" t="n">
-        <v>0.6658449074074074</v>
-      </c>
-      <c r="E191" s="3" t="n">
-        <v>2.314814814814815e-05</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="n">
-        <v>5</v>
-      </c>
-      <c r="B192" s="1" t="n">
-        <v>45613</v>
-      </c>
-      <c r="C192" s="2" t="n">
-        <v>0.6658217592592592</v>
-      </c>
-      <c r="D192" s="2" t="n">
-        <v>0.6658796296296297</v>
-      </c>
-      <c r="E192" s="3" t="n">
-        <v>5.787037037037037e-05</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="n">
-        <v>6</v>
-      </c>
-      <c r="B193" s="1" t="n">
-        <v>45613</v>
-      </c>
-      <c r="C193" s="2" t="n">
-        <v>0.6658217592592592</v>
-      </c>
-      <c r="D193" s="2" t="n">
-        <v>0.6659375</v>
-      </c>
-      <c r="E193" s="3" t="n">
-        <v>0.0001157407407407407</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="n">
-        <v>3</v>
-      </c>
-      <c r="B194" s="1" t="n">
-        <v>45613</v>
-      </c>
-      <c r="C194" s="2" t="n">
-        <v>0.6658217592592592</v>
-      </c>
-      <c r="D194" s="2" t="n">
-        <v>0.6659953703703704</v>
-      </c>
-      <c r="E194" s="3" t="n">
-        <v>0.000162037037037037</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="n">
-        <v>4</v>
-      </c>
-      <c r="B195" s="1" t="n">
-        <v>45613</v>
-      </c>
-      <c r="C195" s="2" t="n">
-        <v>0.6666319444444444</v>
-      </c>
-      <c r="D195" s="2" t="n">
-        <v>0.6666550925925926</v>
-      </c>
-      <c r="E195" s="3" t="n">
-        <v>2.314814814814815e-05</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="n">
-        <v>5</v>
-      </c>
-      <c r="B196" s="1" t="n">
-        <v>45613</v>
-      </c>
-      <c r="C196" s="2" t="n">
-        <v>0.6666319444444444</v>
-      </c>
-      <c r="D196" s="2" t="n">
-        <v>0.6666898148148148</v>
-      </c>
-      <c r="E196" s="3" t="n">
-        <v>5.787037037037037e-05</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="n">
-        <v>6</v>
-      </c>
-      <c r="B197" s="1" t="n">
-        <v>45613</v>
-      </c>
-      <c r="C197" s="2" t="n">
-        <v>0.6666319444444444</v>
-      </c>
-      <c r="D197" s="2" t="n">
-        <v>0.6667476851851852</v>
-      </c>
-      <c r="E197" s="3" t="n">
-        <v>0.0001157407407407407</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="n">
-        <v>3</v>
-      </c>
-      <c r="B198" s="1" t="n">
-        <v>45613</v>
-      </c>
-      <c r="C198" s="2" t="n">
-        <v>0.6666319444444444</v>
-      </c>
-      <c r="D198" s="2" t="n">
-        <v>0.6668055555555555</v>
-      </c>
-      <c r="E198" s="3" t="n">
-        <v>0.000162037037037037</v>
+        <v>3.472222222222222e-05</v>
       </c>
     </row>
   </sheetData>

--- a/data/record.xlsx
+++ b/data/record.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F125"/>
+  <dimension ref="A1:F156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2571,6 +2571,536 @@
         <v>3.472222222222222e-05</v>
       </c>
     </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>4</v>
+      </c>
+      <c r="B126" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C126" s="2" t="n">
+        <v>0.8338425925925926</v>
+      </c>
+      <c r="D126" s="2" t="n">
+        <v>0.8338888888888889</v>
+      </c>
+      <c r="E126" s="3" t="n">
+        <v>3.472222222222222e-05</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>5</v>
+      </c>
+      <c r="B127" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C127" s="2" t="n">
+        <v>0.8338425925925926</v>
+      </c>
+      <c r="D127" s="2" t="n">
+        <v>0.8339004629629629</v>
+      </c>
+      <c r="E127" s="3" t="n">
+        <v>5.787037037037037e-05</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>6</v>
+      </c>
+      <c r="B128" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C128" s="2" t="n">
+        <v>0.8338425925925926</v>
+      </c>
+      <c r="D128" s="2" t="n">
+        <v>0.8339583333333334</v>
+      </c>
+      <c r="E128" s="3" t="n">
+        <v>0.0001157407407407407</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>3</v>
+      </c>
+      <c r="B129" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C129" s="2" t="n">
+        <v>0.8338425925925926</v>
+      </c>
+      <c r="D129" s="2" t="n">
+        <v>0.8339930555555556</v>
+      </c>
+      <c r="E129" s="3" t="n">
+        <v>0.0001388888888888889</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>4</v>
+      </c>
+      <c r="B130" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C130" s="2" t="n">
+        <v>0.8348611111111112</v>
+      </c>
+      <c r="D130" s="2" t="n">
+        <v>0.8348842592592592</v>
+      </c>
+      <c r="E130" s="3" t="n">
+        <v>2.314814814814815e-05</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>6</v>
+      </c>
+      <c r="B131" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C131" s="2" t="n">
+        <v>0.8348611111111112</v>
+      </c>
+      <c r="D131" s="2" t="n">
+        <v>0.8348958333333333</v>
+      </c>
+      <c r="E131" s="3" t="n">
+        <v>2.314814814814815e-05</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>5</v>
+      </c>
+      <c r="B132" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C132" s="2" t="n">
+        <v>0.8348611111111112</v>
+      </c>
+      <c r="D132" s="2" t="n">
+        <v>0.8348958333333333</v>
+      </c>
+      <c r="E132" s="3" t="n">
+        <v>2.314814814814815e-05</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>3</v>
+      </c>
+      <c r="B133" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C133" s="2" t="n">
+        <v>0.8348611111111112</v>
+      </c>
+      <c r="D133" s="2" t="n">
+        <v>0.8348958333333333</v>
+      </c>
+      <c r="E133" s="3" t="n">
+        <v>2.314814814814815e-05</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>0</v>
+      </c>
+      <c r="B134" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C134" s="2" t="n">
+        <v>0.8463078703703704</v>
+      </c>
+      <c r="D134" s="2" t="n">
+        <v>0.8463078703703704</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>0</v>
+      </c>
+      <c r="B135" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C135" s="2" t="n">
+        <v>0.8472800925925926</v>
+      </c>
+      <c r="D135" s="2" t="n">
+        <v>0.8472800925925926</v>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>note</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>0</v>
+      </c>
+      <c r="B136" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C136" s="2" t="n">
+        <v>0.8500578703703704</v>
+      </c>
+      <c r="D136" s="2" t="n">
+        <v>0.8500578703703704</v>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>note</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>6</v>
+      </c>
+      <c r="B137" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C137" s="2" t="n">
+        <v>0.8498726851851852</v>
+      </c>
+      <c r="D137" s="2" t="n">
+        <v>0.8502662037037036</v>
+      </c>
+      <c r="E137" s="3" t="n">
+        <v>0.0003819444444444445</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>5</v>
+      </c>
+      <c r="B138" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C138" s="2" t="n">
+        <v>0.8498726851851852</v>
+      </c>
+      <c r="D138" s="2" t="n">
+        <v>0.8502662037037036</v>
+      </c>
+      <c r="E138" s="3" t="n">
+        <v>0.0003819444444444445</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>4</v>
+      </c>
+      <c r="B139" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C139" s="2" t="n">
+        <v>0.8498726851851852</v>
+      </c>
+      <c r="D139" s="2" t="n">
+        <v>0.8502662037037036</v>
+      </c>
+      <c r="E139" s="3" t="n">
+        <v>0.0003819444444444445</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>3</v>
+      </c>
+      <c r="B140" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C140" s="2" t="n">
+        <v>0.8502314814814815</v>
+      </c>
+      <c r="D140" s="2" t="n">
+        <v>0.8508449074074074</v>
+      </c>
+      <c r="E140" s="3" t="n">
+        <v>0.0006018518518518519</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>3</v>
+      </c>
+      <c r="B141" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C141" s="2" t="n">
+        <v>0.8498726851851852</v>
+      </c>
+      <c r="D141" s="2" t="n">
+        <v>0.8508449074074074</v>
+      </c>
+      <c r="E141" s="3" t="n">
+        <v>0.0009606481481481482</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>0</v>
+      </c>
+      <c r="B142" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C142" s="2" t="n">
+        <v>0.8516319444444445</v>
+      </c>
+      <c r="D142" s="2" t="n">
+        <v>0.8516319444444445</v>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>nope</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>6</v>
+      </c>
+      <c r="B143" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C143" s="2" t="n">
+        <v>0.851550925925926</v>
+      </c>
+      <c r="D143" s="2" t="n">
+        <v>0.8518055555555556</v>
+      </c>
+      <c r="E143" s="3" t="n">
+        <v>0.0002546296296296296</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>5</v>
+      </c>
+      <c r="B144" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C144" s="2" t="n">
+        <v>0.851550925925926</v>
+      </c>
+      <c r="D144" s="2" t="n">
+        <v>0.8518055555555556</v>
+      </c>
+      <c r="E144" s="3" t="n">
+        <v>0.0002546296296296296</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>4</v>
+      </c>
+      <c r="B145" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C145" s="2" t="n">
+        <v>0.851550925925926</v>
+      </c>
+      <c r="D145" s="2" t="n">
+        <v>0.8518055555555556</v>
+      </c>
+      <c r="E145" s="3" t="n">
+        <v>0.0002546296296296296</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>3</v>
+      </c>
+      <c r="B146" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C146" s="2" t="n">
+        <v>0.851550925925926</v>
+      </c>
+      <c r="D146" s="2" t="n">
+        <v>0.8522337962962963</v>
+      </c>
+      <c r="E146" s="3" t="n">
+        <v>0.0006828703703703704</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>5</v>
+      </c>
+      <c r="B147" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C147" s="2" t="n">
+        <v>0.8517592592592592</v>
+      </c>
+      <c r="D147" s="2" t="n">
+        <v>0.8522337962962963</v>
+      </c>
+      <c r="E147" s="3" t="n">
+        <v>0.000474537037037037</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>5</v>
+      </c>
+      <c r="B148" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C148" s="2" t="n">
+        <v>0.8528125</v>
+      </c>
+      <c r="D148" s="2" t="n">
+        <v>0.8529282407407407</v>
+      </c>
+      <c r="E148" s="3" t="n">
+        <v>0.0001041666666666667</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>4</v>
+      </c>
+      <c r="B149" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C149" s="2" t="n">
+        <v>0.8528125</v>
+      </c>
+      <c r="D149" s="2" t="n">
+        <v>0.8529282407407407</v>
+      </c>
+      <c r="E149" s="3" t="n">
+        <v>0.0001041666666666667</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>3</v>
+      </c>
+      <c r="B150" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C150" s="2" t="n">
+        <v>0.8528125</v>
+      </c>
+      <c r="D150" s="2" t="n">
+        <v>0.8529745370370371</v>
+      </c>
+      <c r="E150" s="3" t="n">
+        <v>0.000150462962962963</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>5</v>
+      </c>
+      <c r="B151" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C151" s="2" t="n">
+        <v>0.8528935185185185</v>
+      </c>
+      <c r="D151" s="2" t="n">
+        <v>0.8529745370370371</v>
+      </c>
+      <c r="E151" s="3" t="n">
+        <v>6.944444444444444e-05</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>6</v>
+      </c>
+      <c r="B152" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C152" s="2" t="n">
+        <v>0.8528125</v>
+      </c>
+      <c r="D152" s="2" t="n">
+        <v>0.8529282407407407</v>
+      </c>
+      <c r="E152" s="3" t="n">
+        <v>0.0001157407407407407</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>6</v>
+      </c>
+      <c r="B153" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C153" s="2" t="n">
+        <v>0.8542361111111111</v>
+      </c>
+      <c r="D153" s="2" t="n">
+        <v>0.8544328703703704</v>
+      </c>
+      <c r="E153" s="3" t="n">
+        <v>0.0001967592592592593</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>5</v>
+      </c>
+      <c r="B154" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C154" s="2" t="n">
+        <v>0.8542361111111111</v>
+      </c>
+      <c r="D154" s="2" t="n">
+        <v>0.8544328703703704</v>
+      </c>
+      <c r="E154" s="3" t="n">
+        <v>0.0001967592592592593</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>4</v>
+      </c>
+      <c r="B155" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C155" s="2" t="n">
+        <v>0.8542361111111111</v>
+      </c>
+      <c r="D155" s="2" t="n">
+        <v>0.8544328703703704</v>
+      </c>
+      <c r="E155" s="3" t="n">
+        <v>0.0001967592592592593</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>3</v>
+      </c>
+      <c r="B156" s="1" t="n">
+        <v>45613</v>
+      </c>
+      <c r="C156" s="2" t="n">
+        <v>0.8542361111111111</v>
+      </c>
+      <c r="D156" s="2" t="n">
+        <v>0.8544328703703704</v>
+      </c>
+      <c r="E156" s="3" t="n">
+        <v>0.0001967592592592593</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
